--- a/Base_de_datos_monitoreo_arboles.xlsx
+++ b/Base_de_datos_monitoreo_arboles.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="English_db" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="88">
   <si>
     <t>ubicación</t>
   </si>
@@ -31,9 +32,6 @@
   </si>
   <si>
     <t>altura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este ejercicio lo haré más simple, mermando la cantidad de atributos. </t>
   </si>
   <si>
     <t>DAP</t>
@@ -197,6 +195,124 @@
   </si>
   <si>
     <t>sembradores_id</t>
+  </si>
+  <si>
+    <t>plant_id</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>scientific_names</t>
+  </si>
+  <si>
+    <t>scientific_name_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">individuos
+individuo_id: INTEGER (PK)
+scientific_name_id: INTEGER (FK)
+sembrador_id: INTEGER (FK)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientific_names
+scientific_name_id: INTEGER (PK)
+scientific_name: VARCHAR(30) NN UNIQUE
+</t>
+  </si>
+  <si>
+    <t>plants</t>
+  </si>
+  <si>
+    <t>monitoring</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>sower</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>monitoring_date</t>
+  </si>
+  <si>
+    <t>monitoring_id</t>
+  </si>
+  <si>
+    <t>families</t>
+  </si>
+  <si>
+    <t>family_id</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>sowers</t>
+  </si>
+  <si>
+    <t>sower_id</t>
+  </si>
+  <si>
+    <t>origins</t>
+  </si>
+  <si>
+    <t>origin_id</t>
+  </si>
+  <si>
+    <t>flower_color</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>plant_flower_color</t>
+  </si>
+  <si>
+    <t>plant_flower_color_id</t>
+  </si>
+  <si>
+    <t>monitoring_date_1</t>
+  </si>
+  <si>
+    <t>height_1</t>
+  </si>
+  <si>
+    <t>diameter_1</t>
+  </si>
+  <si>
+    <t>monitoring_date_2</t>
+  </si>
+  <si>
+    <t>height_2</t>
+  </si>
+  <si>
+    <t>diameter_2</t>
   </si>
 </sst>
 </file>
@@ -245,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -403,11 +519,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,6 +595,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -517,51 +694,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -572,6 +704,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1789,6 +1934,1235 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="10219765" y="9480176"/>
           <a:ext cx="33617" cy="381002"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>117613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>717177</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>132229</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector recto 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3562350" y="9023488"/>
+          <a:ext cx="1612527" cy="14616"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11995</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156513</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>115614</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3574345" y="8929524"/>
+          <a:ext cx="144518" cy="91965"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11995</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>110360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>151258</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>10511</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3574345" y="9016235"/>
+          <a:ext cx="139263" cy="90651"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604673</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>36787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604845</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>5256</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5062373" y="8942662"/>
+          <a:ext cx="172" cy="158969"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>712305</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4274655" y="9448800"/>
+          <a:ext cx="11595" cy="1226240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>557164</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>69447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714533</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152274</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector recto 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5014864" y="9356322"/>
+          <a:ext cx="157369" cy="82827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>572774</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>169794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13061</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>70403</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5030474" y="9456669"/>
+          <a:ext cx="164187" cy="91109"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>728872</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4291222" y="9448386"/>
+          <a:ext cx="890378" cy="414"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844826</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>707336</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>3314</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1787801" y="10658475"/>
+          <a:ext cx="2481885" cy="3314"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>875058</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>7041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>875059</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1818033" y="10665516"/>
+          <a:ext cx="1" cy="745434"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>753518</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>79072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1696493" y="11306175"/>
+          <a:ext cx="227557" cy="2872"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11596</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector recto 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5819775" y="9677400"/>
+          <a:ext cx="11596" cy="1772478"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>530715</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144117</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>154858</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector recto 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5712315" y="11382375"/>
+          <a:ext cx="251577" cy="2458"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5798</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88624</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conector recto 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5825573" y="9677400"/>
+          <a:ext cx="82826" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>511037</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>630721</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>11596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector recto 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5692637" y="9677400"/>
+          <a:ext cx="119684" cy="211621"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector recto 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9391650" y="9477376"/>
+          <a:ext cx="1" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector recto 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7581900" y="9485658"/>
+          <a:ext cx="1826315" cy="8283"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>637760</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>745435</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9276935" y="9702248"/>
+          <a:ext cx="107675" cy="165651"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14911</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>23192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>124240</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector recto 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9406561" y="9700592"/>
+          <a:ext cx="109329" cy="167308"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28162</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector recto 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9419812" y="10666757"/>
+          <a:ext cx="112642" cy="144119"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>627407</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>196712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector recto 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9266582" y="10655162"/>
+          <a:ext cx="133350" cy="160683"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector recto 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9399933" y="10658475"/>
+          <a:ext cx="8282" cy="779807"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>348356</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>140807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectángulo redondeado 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9740006" y="8465657"/>
+          <a:ext cx="1619397" cy="1157395"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tabla</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> pivote o intermedia para poder relacionar tablas con relación N:N o muchos a muchos</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CO" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conector recto de flecha 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10630461" y="9488580"/>
+          <a:ext cx="33617" cy="388847"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2085,8 +3459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,31 +3484,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="7"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>18</v>
+      <c r="A3" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
@@ -2149,32 +3521,32 @@
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4">
         <v>20</v>
@@ -2188,24 +3560,24 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="H5" s="4">
         <v>30</v>
@@ -2219,24 +3591,24 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4">
         <v>23</v>
@@ -2250,24 +3622,24 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="H7" s="4">
         <v>32</v>
@@ -2312,35 +3684,35 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="J10" s="39" t="s">
+      <c r="A10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
+      <c r="B10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>0</v>
@@ -2352,40 +3724,40 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="14">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
@@ -2404,24 +3776,24 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="14">
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="J13" s="4">
         <v>2</v>
@@ -2440,7 +3812,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="23"/>
       <c r="J14" s="4">
         <v>3</v>
       </c>
@@ -2458,7 +3830,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="23"/>
       <c r="J15" s="4">
         <v>4</v>
       </c>
@@ -2493,192 +3865,192 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="42" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="32"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="34"/>
+    </row>
+    <row r="19" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" s="43"/>
-    </row>
-    <row r="19" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="50" t="s">
+      <c r="F19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="50" t="s">
+      <c r="K19" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="22" t="s">
         <v>1</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="14">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="14">
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="4">
         <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K21" s="4">
         <v>2</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N21" s="4">
         <v>2</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="52" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="J23" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="J23" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="47"/>
-    </row>
-    <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="50" t="s">
+      <c r="K24" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="50" t="s">
-        <v>10</v>
+      <c r="M24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="14">
         <v>1</v>
       </c>
@@ -2714,7 +4086,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="14">
         <v>2</v>
       </c>
@@ -2750,7 +4122,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="23"/>
       <c r="J27" s="4">
         <v>3</v>
       </c>
@@ -2768,7 +4140,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="23"/>
       <c r="J28" s="4">
         <v>4</v>
       </c>
@@ -2787,15 +4159,15 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="C29" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="G29" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="48"/>
+      <c r="C29" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="G29" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="32"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="8"/>
@@ -2804,20 +4176,20 @@
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>43</v>
+      <c r="G30" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="10"/>
@@ -2838,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="11"/>
@@ -2859,7 +4231,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -2877,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
@@ -2895,7 +4267,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -2973,17 +4345,17 @@
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="H41" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="30"/>
+      <c r="B41" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="46"/>
+      <c r="H41" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="45"/>
+      <c r="J41" s="46"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
@@ -2998,14 +4370,14 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="11"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="49"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
@@ -3020,14 +4392,14 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="11"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="49"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
@@ -3042,14 +4414,14 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="11"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="49"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
@@ -3064,14 +4436,14 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="11"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="36"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="52"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
@@ -3086,10 +4458,10 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="11"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -3108,20 +4480,20 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="11"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="L47" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="30"/>
+      <c r="L47" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="46"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -3136,18 +4508,18 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="11"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="33"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="49"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
@@ -3162,18 +4534,18 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="52"/>
       <c r="F49" s="11"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="33"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="49"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
@@ -3192,10 +4564,10 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="36"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="52"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -3211,7 +4583,7 @@
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
@@ -3269,23 +4641,23 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="F55" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="46"/>
+      <c r="K55" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="F55" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
-      <c r="K55" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="30"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="46"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -3300,17 +4672,17 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="25"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="33"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="49"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="49"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -3325,33 +4697,43 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="25"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="33"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="49"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="49"/>
     </row>
     <row r="58" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="26"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="28"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="36"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="36"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="44"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="52"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B55:D58"/>
+    <mergeCell ref="F55:I58"/>
+    <mergeCell ref="K55:N58"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="B41:E49"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="H41:J45"/>
     <mergeCell ref="A18:A28"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A3:A7"/>
@@ -3363,19 +4745,1514 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B55:D58"/>
-    <mergeCell ref="F55:I58"/>
-    <mergeCell ref="K55:N58"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="B41:E49"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="H41:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5">
+        <v>43385</v>
+      </c>
+      <c r="I8" s="4">
+        <v>20</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="59">
+        <v>2</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="5">
+        <v>43385</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4">
+        <v>20</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J17" s="5">
+        <v>43385</v>
+      </c>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="4">
+        <v>30</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J18" s="5">
+        <v>43385</v>
+      </c>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4">
+        <v>23</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J19" s="5">
+        <v>44486</v>
+      </c>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="4">
+        <v>32</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="J20" s="5">
+        <v>44486</v>
+      </c>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="J23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="30"/>
+    </row>
+    <row r="24" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5">
+        <v>43385</v>
+      </c>
+      <c r="M25" s="4">
+        <v>20</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="14">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
+      <c r="L26" s="5">
+        <v>43385</v>
+      </c>
+      <c r="M26" s="4">
+        <v>30</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="J27" s="4">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>44486</v>
+      </c>
+      <c r="M27" s="4">
+        <v>23</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="J28" s="4">
+        <v>4</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="L28" s="5">
+        <v>44486</v>
+      </c>
+      <c r="M28" s="4">
+        <v>32</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="34"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31" s="34"/>
+    </row>
+    <row r="32" spans="1:16" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="14">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="4">
+        <v>2</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="J36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="30"/>
+    </row>
+    <row r="37" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="14">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>43385</v>
+      </c>
+      <c r="L38" s="4">
+        <v>20</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="14">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>2</v>
+      </c>
+      <c r="K39" s="5">
+        <v>43385</v>
+      </c>
+      <c r="L39" s="4">
+        <v>30</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="N39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="J40" s="4">
+        <v>3</v>
+      </c>
+      <c r="K40" s="5">
+        <v>44486</v>
+      </c>
+      <c r="L40" s="4">
+        <v>23</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="J41" s="4">
+        <v>4</v>
+      </c>
+      <c r="K41" s="5">
+        <v>44486</v>
+      </c>
+      <c r="L41" s="4">
+        <v>32</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="N41" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="C42" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="G42" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="34"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="C43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="18"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="C45" s="4">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3</v>
+      </c>
+      <c r="G45" s="4">
+        <v>2</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="C46" s="4">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4">
+        <v>3</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="C47" s="4">
+        <v>4</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>4</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="C48" s="4">
+        <v>5</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4">
+        <v>4</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+    </row>
+    <row r="53" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+    </row>
+    <row r="54" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="46"/>
+      <c r="H54" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" s="45"/>
+      <c r="J54" s="46"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="11"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="49"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="11"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="49"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="11"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="49"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+    </row>
+    <row r="58" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="11"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="52"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="47"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="11"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B60" s="47"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="11"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="L60" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="11"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
+    </row>
+    <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="11"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+    </row>
+    <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="J64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+    </row>
+    <row r="65" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="11"/>
+    </row>
+    <row r="67" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="11"/>
+    </row>
+    <row r="68" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="38"/>
+      <c r="F68" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="46"/>
+      <c r="K68" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" s="45"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="46"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="11"/>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B69" s="39"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="41"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="49"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="49"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="11"/>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B70" s="39"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="41"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="49"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="49"/>
+    </row>
+    <row r="71" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="42"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="44"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="52"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B68:D71"/>
+    <mergeCell ref="F68:I71"/>
+    <mergeCell ref="K68:N71"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B54:E62"/>
+    <mergeCell ref="H54:J58"/>
+    <mergeCell ref="L60:O63"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="K31:L31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Base_de_datos_monitoreo_arboles.xlsx
+++ b/Base_de_datos_monitoreo_arboles.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="99">
   <si>
     <t>ubicación</t>
   </si>
@@ -209,13 +209,6 @@
     <t>scientific_name_id</t>
   </si>
   <si>
-    <t xml:space="preserve">individuos
-individuo_id: INTEGER (PK)
-scientific_name_id: INTEGER (FK)
-sembrador_id: INTEGER (FK)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">scientific_names
 scientific_name_id: INTEGER (PK)
 scientific_name: VARCHAR(30) NN UNIQUE
@@ -225,9 +218,6 @@
     <t>plants</t>
   </si>
   <si>
-    <t>monitoring</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -288,9 +278,6 @@
     <t>white</t>
   </si>
   <si>
-    <t>purple</t>
-  </si>
-  <si>
     <t>plant_flower_color</t>
   </si>
   <si>
@@ -313,12 +300,88 @@
   </si>
   <si>
     <t>diameter_2</t>
+  </si>
+  <si>
+    <t>flower_color_1</t>
+  </si>
+  <si>
+    <t>flower_color_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red </t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>introduced</t>
+  </si>
+  <si>
+    <t>monitorings</t>
+  </si>
+  <si>
+    <t>monitoring
+monitoring_id: INTEGER (PK)
+monitoring_date: DATETIME NN
+height: FLOAT(5) NN
+diameter: FLOAT(5) NN
+plant_id: INTEGER (FK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plants
+plant_id: INTEGER (PK)
+scientific_name_id: INTEGER(FK)
+family_id: INTEGER (FK)
+location_id: INTEGER (FK)
+sower_id: INTEGER (FK)
+origin_id: INTEGER (FK)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant_flower_color
+plant_flower_color_id: INTEGER (PK)
+plant_id: INTEGER (FK)
+color_id: INTEGER(FK)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower_color
+color_id: INTEGER(PK)
+color: VARCHAR(30) NN UNIQUE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sowers
+sower_id: INTEGER (PK)
+sower: VARCHAR(30) NN UNIQUE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">families
+family_id: INTEGER (PK)
+family: VARCHAR(30) NN UNIQUE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locations
+locations_id: INTEGER (PK)
+location: VARCHAR(30) NN UNIQUE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origins
+origin_id: INTEGER (PK)
+origin: VARCHAR(30) NN UNIQUE
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -532,11 +595,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,6 +796,88 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,97 +902,77 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1971,13 +2225,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>117613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>717177</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>132229</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2021,13 +2275,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>11995</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>23649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>156513</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>115614</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2071,13 +2325,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>11995</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>110360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>151258</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>10511</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2121,13 +2375,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>604673</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>36787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>604845</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>5256</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2171,13 +2425,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>712305</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2187,8 +2441,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4274655" y="9448800"/>
-          <a:ext cx="11595" cy="1226240"/>
+          <a:off x="4255605" y="12668250"/>
+          <a:ext cx="11595" cy="1216715"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2220,15 +2474,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>557164</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>69447</xdr:rowOff>
+      <xdr:colOff>446689</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>69448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>714533</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>152274</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3114</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>157656</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2237,8 +2491,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5014864" y="9356322"/>
-          <a:ext cx="157369" cy="82827"/>
+          <a:off x="4887310" y="12570189"/>
+          <a:ext cx="134494" cy="88208"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2270,14 +2524,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>572774</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>169794</xdr:rowOff>
+      <xdr:colOff>440120</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>177362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>13061</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>70403</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2287,8 +2541,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5030474" y="9456669"/>
-          <a:ext cx="164187" cy="91109"/>
+          <a:off x="4880741" y="12678103"/>
+          <a:ext cx="151010" cy="83541"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2321,13 +2575,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>728872</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579782</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2370,15 +2624,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>844826</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>873401</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>707336</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>3314</xdr:rowOff>
+      <xdr:colOff>735911</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>22364</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2387,7 +2641,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1787801" y="10658475"/>
+          <a:off x="1797326" y="13887450"/>
           <a:ext cx="2481885" cy="3314"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2421,13 +2675,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>875058</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>7041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>875059</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2471,13 +2725,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>753518</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>79072</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2520,14 +2774,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>11596</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>11596</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>19878</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2536,9 +2790,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5819775" y="9677400"/>
-          <a:ext cx="11596" cy="1772478"/>
+        <a:xfrm flipV="1">
+          <a:off x="5783746" y="13916025"/>
+          <a:ext cx="7454" cy="753303"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2570,15 +2824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>530715</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>596976</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>135834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>144117</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>154858</xdr:rowOff>
+      <xdr:colOff>210378</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>138292</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2587,8 +2841,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5712315" y="11382375"/>
-          <a:ext cx="251577" cy="2458"/>
+          <a:off x="5624519" y="14580704"/>
+          <a:ext cx="367120" cy="2458"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2620,15 +2874,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>5798</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>88624</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>126724</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2637,8 +2891,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5825573" y="9677400"/>
-          <a:ext cx="82826" cy="200025"/>
+          <a:off x="5791200" y="13877926"/>
+          <a:ext cx="107674" cy="171449"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2670,15 +2924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>511037</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>615812</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>630721</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>11596</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2687,8 +2941,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5692637" y="9677400"/>
-          <a:ext cx="119684" cy="211621"/>
+          <a:off x="5635487" y="13839826"/>
+          <a:ext cx="155713" cy="209549"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2721,13 +2975,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2771,13 +3025,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2821,13 +3075,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>637760</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>745435</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2871,13 +3125,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>14911</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>23192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>124240</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2921,13 +3175,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>28162</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>8282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2971,13 +3225,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>627407</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>196712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3021,13 +3275,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3070,14 +3324,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>348356</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>140807</xdr:rowOff>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>291353</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3087,12 +3341,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9740006" y="8465657"/>
-          <a:ext cx="1619397" cy="1157395"/>
+          <a:off x="8837543" y="11926957"/>
+          <a:ext cx="1931310" cy="924242"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3116,20 +3376,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-CO" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Tabla</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="es-CO" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> pivote o intermedia para poder relacionar tablas con relación N:N o muchos a muchos</a:t>
+            <a:t>intermediate table; this is used to relationate tables with N:N relations; in this case plants-flower_color</a:t>
           </a:r>
           <a:endParaRPr lang="es-CO" sz="1100">
             <a:solidFill>
@@ -3145,13 +3397,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>291353</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3172,6 +3424,856 @@
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>35327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>84683</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector recto 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4514850" y="13503677"/>
+          <a:ext cx="8483" cy="755248"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>436121</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>573571</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>50108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Conector recto 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4874771" y="13430250"/>
+          <a:ext cx="137450" cy="88208"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>429552</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>69814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2493</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>153355</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Conector recto 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4868202" y="13538164"/>
+          <a:ext cx="153966" cy="83541"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>54377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>569214</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Conector recto 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4543425" y="13522727"/>
+          <a:ext cx="464439" cy="2773"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>10066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>87169</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Conector recto 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3295650" y="14259466"/>
+          <a:ext cx="1230169" cy="8984"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>32843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>388241</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Conector recto 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3305175" y="14282243"/>
+          <a:ext cx="7241" cy="1529257"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>82952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>494257</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>85824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Conector recto 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3190875" y="15684902"/>
+          <a:ext cx="227557" cy="2872"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>94709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Conector recto 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6467476" y="16277684"/>
+          <a:ext cx="209549" cy="541"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Conector recto 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6524625" y="16182976"/>
+          <a:ext cx="1" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>100508</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Conector recto 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6657975" y="13868400"/>
+          <a:ext cx="19050" cy="2415083"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Conector recto 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6677025" y="13858875"/>
+          <a:ext cx="114300" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176834</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>2071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Conector recto 55"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6515100" y="13849351"/>
+          <a:ext cx="119684" cy="211620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>110033</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Conector recto 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7010400" y="13877925"/>
+          <a:ext cx="19050" cy="2415083"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>181154</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Conector recto 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7112659" y="16205799"/>
+          <a:ext cx="1" cy="171449"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>566372</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>109172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>740019</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>109173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Conector recto 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7028718" y="16265037"/>
+          <a:ext cx="173647" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>576056</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>690356</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Conector recto 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7044773" y="13874611"/>
+          <a:ext cx="114300" cy="198784"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414131</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533815</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>11595</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Conector recto 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6882848" y="13865087"/>
+          <a:ext cx="119684" cy="210378"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3484,19 +4586,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
       <c r="K1" s="7"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="53" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3529,7 +4631,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -3560,7 +4662,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -3591,7 +4693,7 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -3622,7 +4724,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -3684,27 +4786,27 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="J10" s="28" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="J10" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="58"/>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
@@ -3740,7 +4842,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="14">
         <v>1</v>
       </c>
@@ -3776,7 +4878,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="14">
         <v>2</v>
       </c>
@@ -3812,7 +4914,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="51"/>
       <c r="J14" s="4">
         <v>3</v>
       </c>
@@ -3830,7 +4932,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="51"/>
       <c r="J15" s="4">
         <v>4</v>
       </c>
@@ -3865,36 +4967,36 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="34"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="34"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="32"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="33" t="s">
+      <c r="N18" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="34"/>
+      <c r="O18" s="60"/>
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
@@ -3927,7 +5029,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="14">
         <v>1</v>
       </c>
@@ -3960,7 +5062,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="14">
         <v>2</v>
       </c>
@@ -3993,28 +5095,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="51"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="J23" s="55" t="s">
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="J23" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="31"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="48"/>
     </row>
     <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="21" t="s">
         <v>9</v>
       </c>
@@ -4050,7 +5152,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="14">
         <v>1</v>
       </c>
@@ -4086,7 +5188,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="14">
         <v>2</v>
       </c>
@@ -4122,7 +5224,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="51"/>
       <c r="J27" s="4">
         <v>3</v>
       </c>
@@ -4140,7 +5242,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="51"/>
       <c r="J28" s="4">
         <v>4</v>
       </c>
@@ -4159,15 +5261,15 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="G29" s="35" t="s">
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="G29" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="32"/>
+      <c r="H29" s="50"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="8"/>
@@ -4345,17 +5447,17 @@
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-      <c r="H41" s="36" t="s">
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="H41" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="45"/>
-      <c r="J41" s="46"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
@@ -4370,14 +5472,14 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="47"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="49"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="11"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="49"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
@@ -4392,14 +5494,14 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="11"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="49"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
@@ -4414,14 +5516,14 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="11"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
@@ -4436,14 +5538,14 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="11"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="52"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="43"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
@@ -4458,10 +5560,10 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="47"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="11"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -4480,20 +5582,20 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="47"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="40"/>
       <c r="F47" s="11"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="L47" s="36" t="s">
+      <c r="L47" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="46"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="37"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -4508,18 +5610,18 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="11"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="49"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="40"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
@@ -4534,18 +5636,18 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="52"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="11"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="49"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="40"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
@@ -4564,10 +5666,10 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="52"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="43"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -4641,23 +5743,23 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
-      <c r="F55" s="36" t="s">
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="F55" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="46"/>
-      <c r="K55" s="36" t="s">
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="37"/>
+      <c r="K55" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="46"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="37"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -4672,17 +5774,17 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="49"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="49"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="40"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="40"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -4697,43 +5799,33 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="41"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="49"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="49"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="40"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="40"/>
     </row>
     <row r="58" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="44"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="52"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="52"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="35"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="43"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B55:D58"/>
-    <mergeCell ref="F55:I58"/>
-    <mergeCell ref="K55:N58"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="B41:E49"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="H41:J45"/>
     <mergeCell ref="A18:A28"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A3:A7"/>
@@ -4745,6 +5837,16 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B55:D58"/>
+    <mergeCell ref="F55:I58"/>
+    <mergeCell ref="K55:N58"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="B41:E49"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="H41:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4754,1163 +5856,1315 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="66"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="5">
+        <v>43385</v>
+      </c>
+      <c r="I4" s="4">
+        <v>20</v>
+      </c>
+      <c r="J4" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="K4" s="5">
+        <v>44486</v>
+      </c>
+      <c r="L4" s="4">
+        <v>23</v>
+      </c>
+      <c r="M4" s="61">
+        <v>0.7</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="67"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
+        <v>2</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="5">
+        <v>43385</v>
+      </c>
+      <c r="I5" s="25">
+        <v>30</v>
+      </c>
+      <c r="J5" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>44486</v>
+      </c>
+      <c r="L5" s="4">
+        <v>32</v>
+      </c>
+      <c r="M5" s="62">
+        <v>0.35</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="67"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="68"/>
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="J9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="68"/>
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="4">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="5">
         <v>43385</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K10" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="68"/>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="4">
         <v>20</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="59">
+      <c r="I11" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="5">
+        <v>43385</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="68"/>
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="4">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J12" s="5">
         <v>43385</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="3" t="s">
+      <c r="K12" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="4">
+        <v>30</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>43385</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="68"/>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="4">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="5">
+        <v>44486</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="68"/>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="4">
+        <v>23</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J15" s="5">
+        <v>44486</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="68"/>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="4">
+        <v>32</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="J16" s="5">
+        <v>44486</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="4">
+        <v>32</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="J17" s="5">
+        <v>44486</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="72"/>
+      <c r="B21" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="I21" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+    </row>
+    <row r="22" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="72"/>
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="I22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="4">
+      <c r="N22" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>43385</v>
+      </c>
+      <c r="L23" s="4">
         <v>20</v>
       </c>
-      <c r="I17" s="4">
+      <c r="M23" s="4">
         <v>0.6</v>
       </c>
-      <c r="J17" s="5">
+      <c r="N23" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
         <v>43385</v>
       </c>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="4">
+      <c r="L24" s="4">
+        <v>20</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="72"/>
+      <c r="I25" s="4">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="K25" s="5">
+        <v>43385</v>
+      </c>
+      <c r="L25" s="4">
         <v>30</v>
       </c>
-      <c r="I18" s="4">
+      <c r="M25" s="4">
         <v>0.3</v>
       </c>
-      <c r="J18" s="5">
-        <v>43385</v>
-      </c>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4">
-        <v>23</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J19" s="5">
-        <v>44486</v>
-      </c>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="4">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="4">
-        <v>32</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="J20" s="5">
-        <v>44486</v>
-      </c>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="J23" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="30"/>
-    </row>
-    <row r="24" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="14">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="4">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5">
-        <v>43385</v>
-      </c>
-      <c r="M25" s="4">
-        <v>20</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0.6</v>
+      <c r="N25" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="14">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>11</v>
+      <c r="A26" s="72"/>
+      <c r="I26" s="4">
+        <v>4</v>
       </c>
       <c r="J26" s="4">
         <v>2</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="5">
+        <v>43385</v>
+      </c>
+      <c r="L26" s="4">
+        <v>30</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="I27" s="4">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
+        <v>44486</v>
+      </c>
+      <c r="L27" s="4">
+        <v>23</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="I28" s="4">
+        <v>6</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>44486</v>
+      </c>
+      <c r="L28" s="4">
+        <v>23</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="I29" s="4">
+        <v>7</v>
+      </c>
+      <c r="J29" s="4">
         <v>2</v>
       </c>
-      <c r="L26" s="5">
+      <c r="K29" s="5">
+        <v>44486</v>
+      </c>
+      <c r="L29" s="4">
+        <v>32</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="I30" s="4">
+        <v>8</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2</v>
+      </c>
+      <c r="K30" s="5">
+        <v>44486</v>
+      </c>
+      <c r="L30" s="4">
+        <v>32</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="60"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="60"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="60"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="O34" s="60"/>
+    </row>
+    <row r="35" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="14">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="14">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="4">
+        <v>2</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="J39" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="58"/>
+    </row>
+    <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="14">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
         <v>43385</v>
       </c>
-      <c r="M26" s="4">
+      <c r="L41" s="4">
+        <v>20</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="14">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>2</v>
+      </c>
+      <c r="K42" s="5">
+        <v>43385</v>
+      </c>
+      <c r="L42" s="4">
         <v>30</v>
       </c>
-      <c r="N26" s="4">
+      <c r="M42" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="J27" s="4">
+      <c r="N42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="J43" s="4">
         <v>3</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K43" s="5">
+        <v>44486</v>
+      </c>
+      <c r="L43" s="4">
+        <v>23</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N43" s="4">
         <v>1</v>
       </c>
-      <c r="L27" s="5">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="J44" s="4">
+        <v>4</v>
+      </c>
+      <c r="K44" s="5">
         <v>44486</v>
       </c>
-      <c r="M27" s="4">
-        <v>23</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="J28" s="4">
-        <v>4</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="L44" s="4">
+        <v>32</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="N44" s="4">
         <v>2</v>
       </c>
-      <c r="L28" s="5">
-        <v>44486</v>
-      </c>
-      <c r="M28" s="4">
-        <v>32</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="O31" s="34"/>
-    </row>
-    <row r="32" spans="1:16" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="14">
-        <v>1</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="4">
-        <v>1</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="4">
-        <v>1</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="14">
-        <v>2</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="4">
-        <v>2</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="4">
-        <v>2</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N34" s="4">
-        <v>2</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="J36" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="30"/>
-    </row>
-    <row r="37" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="14">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1</v>
-      </c>
-      <c r="J38" s="4">
-        <v>1</v>
-      </c>
-      <c r="K38" s="5">
-        <v>43385</v>
-      </c>
-      <c r="L38" s="4">
-        <v>20</v>
-      </c>
-      <c r="M38" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="N38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="14">
-        <v>2</v>
-      </c>
-      <c r="C39" s="4">
-        <v>2</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2</v>
-      </c>
-      <c r="F39" s="4">
-        <v>2</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="J39" s="4">
-        <v>2</v>
-      </c>
-      <c r="K39" s="5">
-        <v>43385</v>
-      </c>
-      <c r="L39" s="4">
-        <v>30</v>
-      </c>
-      <c r="M39" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="N39" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="J40" s="4">
-        <v>3</v>
-      </c>
-      <c r="K40" s="5">
-        <v>44486</v>
-      </c>
-      <c r="L40" s="4">
-        <v>23</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="N40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="J41" s="4">
-        <v>4</v>
-      </c>
-      <c r="K41" s="5">
-        <v>44486</v>
-      </c>
-      <c r="L41" s="4">
-        <v>32</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="N41" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="C42" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="G42" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="34"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-    </row>
-    <row r="43" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="C43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L43" s="18"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="C44" s="4">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="C45" s="4">
-        <v>2</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <v>3</v>
-      </c>
-      <c r="G45" s="4">
-        <v>2</v>
-      </c>
-      <c r="H45" s="4" t="s">
+      <c r="C45" s="59" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="C46" s="4">
-        <v>3</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2</v>
-      </c>
-      <c r="E46" s="4">
-        <v>2</v>
-      </c>
-      <c r="G46" s="4">
-        <v>3</v>
-      </c>
-      <c r="H46" s="4" t="s">
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="G45" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" s="60"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="C46" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="D46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" s="18"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="C47" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
         <v>2</v>
       </c>
-      <c r="E47" s="4">
+      <c r="G47" s="4">
         <v>1</v>
       </c>
-      <c r="G47" s="4">
-        <v>4</v>
-      </c>
       <c r="H47" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="L47" s="8"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="C48" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3</v>
+      </c>
+      <c r="G48" s="4">
         <v>2</v>
       </c>
-      <c r="E48" s="4">
-        <v>4</v>
-      </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
+      <c r="H48" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
+      <c r="C49" s="4">
+        <v>3</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="25">
+        <v>3</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
+      <c r="C50" s="4">
+        <v>4</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
+      <c r="A51" s="15"/>
+      <c r="C51" s="4">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>4</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-    </row>
-    <row r="53" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-    </row>
-    <row r="54" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-      <c r="H54" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I54" s="45"/>
-      <c r="J54" s="46"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
+      <c r="A52" s="15"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="11"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="49"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="11"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="49"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+    </row>
+    <row r="56" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P56" s="11"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
       <c r="V56" s="11"/>
@@ -5920,15 +7174,19 @@
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="11"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="49"/>
+    <row r="57" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="37"/>
+      <c r="H57" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" s="75"/>
+      <c r="J57" s="76"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
@@ -5942,15 +7200,15 @@
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="49"/>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B58" s="38"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="11"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="52"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="78"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
@@ -5964,95 +7222,81 @@
       <c r="Z58" s="11"/>
       <c r="AA58" s="11"/>
     </row>
-    <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="49"/>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B59" s="38"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="11"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="78"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
       <c r="S59" s="17"/>
       <c r="T59" s="11"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="49"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="11"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="L60" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="46"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="78"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
       <c r="S60" s="17"/>
       <c r="T60" s="11"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="17"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
       <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="49"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="11"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="49"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="78"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
       <c r="S61" s="17"/>
       <c r="T61" s="11"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
-      <c r="X61" s="17"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
       <c r="Z61" s="11"/>
       <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="50"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="11"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="48"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="49"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="78"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="17"/>
@@ -6066,105 +7310,127 @@
       <c r="Z62" s="11"/>
       <c r="AA62" s="11"/>
     </row>
-    <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B63" s="38"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
-      <c r="O63" s="52"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="78"/>
+      <c r="L63" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="37"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
       <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
       <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="J64" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B64" s="38"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="11"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="78"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="40"/>
       <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
       <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17"/>
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
       <c r="AA64" s="11"/>
     </row>
-    <row r="65" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="11"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="78"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="40"/>
       <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
       <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
+      <c r="U65" s="17"/>
       <c r="V65" s="17"/>
       <c r="W65" s="17"/>
       <c r="X65" s="17"/>
-      <c r="Y65" s="17"/>
+      <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="81"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="43"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
       <c r="U66" s="11"/>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
       <c r="Z66" s="11"/>
       <c r="AA66" s="11"/>
     </row>
-    <row r="67" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="J67" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
-      <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
       <c r="Z67" s="11"/>
       <c r="AA67" s="11"/>
     </row>
     <row r="68" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="38"/>
-      <c r="F68" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="46"/>
-      <c r="K68" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L68" s="45"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="46"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
@@ -6179,80 +7445,250 @@
       <c r="AA68" s="11"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B69" s="39"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="41"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="49"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="49"/>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
       <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="11"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
       <c r="Z69" s="11"/>
       <c r="AA69" s="11"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B70" s="39"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="41"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="49"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="49"/>
-    </row>
-    <row r="71" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="42"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="44"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="52"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="51"/>
-      <c r="M71" s="51"/>
-      <c r="N71" s="52"/>
+    <row r="70" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="11"/>
+      <c r="AA70" s="11"/>
+    </row>
+    <row r="71" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="36"/>
+      <c r="D71" s="37"/>
+      <c r="F71" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="37"/>
+      <c r="L71" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B72" s="38"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="40"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="40"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B73" s="38"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="40"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="40"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="40"/>
+    </row>
+    <row r="74" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="41"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="43"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="43"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="43"/>
+    </row>
+    <row r="76" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="36"/>
+      <c r="E77" s="37"/>
+      <c r="G77" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H77" s="36"/>
+      <c r="I77" s="37"/>
+      <c r="K77" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L77" s="36"/>
+      <c r="M77" s="37"/>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C78" s="38"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="40"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="40"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="40"/>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C79" s="38"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="40"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="40"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="40"/>
+    </row>
+    <row r="80" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="43"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="43"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="43"/>
+    </row>
+    <row r="84" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H84" s="82"/>
+      <c r="I84" s="83"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="83"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="82"/>
+      <c r="O84" s="83"/>
+      <c r="P84" s="65"/>
+      <c r="Q84" s="82"/>
+      <c r="R84" s="83"/>
+      <c r="S84" s="65"/>
+    </row>
+    <row r="85" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="65"/>
+    </row>
+    <row r="86" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H86" s="65"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="65"/>
+      <c r="M86" s="65"/>
+      <c r="N86" s="65"/>
+      <c r="O86" s="65"/>
+      <c r="P86" s="65"/>
+      <c r="Q86" s="65"/>
+      <c r="R86" s="65"/>
+      <c r="S86" s="65"/>
+    </row>
+    <row r="87" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H87" s="65"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="65"/>
+      <c r="M87" s="65"/>
+      <c r="N87" s="65"/>
+      <c r="O87" s="65"/>
+      <c r="P87" s="65"/>
+      <c r="Q87" s="65"/>
+      <c r="R87" s="65"/>
+      <c r="S87" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B68:D71"/>
-    <mergeCell ref="F68:I71"/>
-    <mergeCell ref="K68:N71"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="B54:E62"/>
-    <mergeCell ref="H54:J58"/>
-    <mergeCell ref="L60:O63"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="K31:L31"/>
+  <mergeCells count="23">
+    <mergeCell ref="C77:E80"/>
+    <mergeCell ref="G77:I80"/>
+    <mergeCell ref="K77:M80"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="B71:D74"/>
+    <mergeCell ref="F71:I74"/>
+    <mergeCell ref="L71:O74"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B57:E65"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="H57:J66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Base_de_datos_monitoreo_arboles.xlsx
+++ b/Base_de_datos_monitoreo_arboles.xlsx
@@ -380,7 +380,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -806,6 +806,77 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -869,96 +940,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -971,8 +973,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4586,19 +4586,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="7"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4631,7 +4631,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -4786,27 +4786,27 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="J10" s="56" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="J10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
@@ -4842,7 +4842,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="14">
         <v>1</v>
       </c>
@@ -4878,7 +4878,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="14">
         <v>2</v>
       </c>
@@ -4914,7 +4914,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="39"/>
       <c r="J14" s="4">
         <v>3</v>
       </c>
@@ -4932,7 +4932,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="39"/>
       <c r="J15" s="4">
         <v>4</v>
       </c>
@@ -4967,36 +4967,36 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="60"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="49" t="s">
+      <c r="K18" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="50"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="59" t="s">
+      <c r="N18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="60"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
@@ -5029,7 +5029,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="14">
         <v>1</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="14">
         <v>2</v>
       </c>
@@ -5095,28 +5095,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="39"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="44" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="J23" s="46" t="s">
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="J23" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="48"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="21" t="s">
         <v>9</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="14">
         <v>1</v>
       </c>
@@ -5188,7 +5188,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="14">
         <v>2</v>
       </c>
@@ -5224,7 +5224,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="39"/>
       <c r="J27" s="4">
         <v>3</v>
       </c>
@@ -5242,7 +5242,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="39"/>
       <c r="J28" s="4">
         <v>4</v>
       </c>
@@ -5261,15 +5261,15 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="G29" s="49" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="G29" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="48"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="8"/>
@@ -5447,17 +5447,17 @@
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="H41" s="27" t="s">
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="H41" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="62"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
@@ -5472,14 +5472,14 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="65"/>
       <c r="F42" s="11"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
@@ -5494,14 +5494,14 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="65"/>
       <c r="F43" s="11"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
@@ -5516,14 +5516,14 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="11"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
@@ -5538,14 +5538,14 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="40"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="11"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
@@ -5560,10 +5560,10 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="11"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -5582,20 +5582,20 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="40"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="65"/>
       <c r="F47" s="11"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="L47" s="27" t="s">
+      <c r="L47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="37"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="62"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -5610,18 +5610,18 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="65"/>
       <c r="F48" s="11"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="40"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="65"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
@@ -5636,18 +5636,18 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="43"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="11"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="40"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="65"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
@@ -5666,10 +5666,10 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="43"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="68"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -5743,23 +5743,23 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-      <c r="F55" s="27" t="s">
+      <c r="C55" s="53"/>
+      <c r="D55" s="54"/>
+      <c r="F55" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="37"/>
-      <c r="K55" s="27" t="s">
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="62"/>
+      <c r="K55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="37"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="62"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -5774,17 +5774,17 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="40"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="40"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="57"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="65"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="65"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -5799,33 +5799,43 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="32"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="40"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="40"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="57"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="65"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="65"/>
     </row>
     <row r="58" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="33"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="43"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="43"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="60"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B55:D58"/>
+    <mergeCell ref="F55:I58"/>
+    <mergeCell ref="K55:N58"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="B41:E49"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="H41:J45"/>
     <mergeCell ref="A18:A28"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A3:A7"/>
@@ -5837,16 +5847,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B55:D58"/>
-    <mergeCell ref="F55:I58"/>
-    <mergeCell ref="K55:N58"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="B41:E49"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="H41:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5858,25 +5858,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" style="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.85546875" style="1" customWidth="1"/>
@@ -5947,10 +5947,10 @@
       <c r="N3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="63" t="s">
+      <c r="O3" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="66"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
@@ -5977,7 +5977,7 @@
       <c r="I4" s="4">
         <v>20</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="27">
         <v>0.6</v>
       </c>
       <c r="K4" s="5">
@@ -5986,16 +5986,16 @@
       <c r="L4" s="4">
         <v>23</v>
       </c>
-      <c r="M4" s="61">
+      <c r="M4" s="27">
         <v>0.7</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="P4" s="67"/>
+      <c r="P4" s="33"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="25">
@@ -6022,7 +6022,7 @@
       <c r="I5" s="25">
         <v>30</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="27">
         <v>0.3</v>
       </c>
       <c r="K5" s="5">
@@ -6031,16 +6031,16 @@
       <c r="L5" s="4">
         <v>32</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="28">
         <v>0.35</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="64" t="s">
+      <c r="O5" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="P5" s="67"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
@@ -6055,26 +6055,26 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6107,7 +6107,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -6140,7 +6140,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -6173,7 +6173,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="4">
         <v>2</v>
       </c>
@@ -6206,7 +6206,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="4">
         <v>2</v>
       </c>
@@ -6239,7 +6239,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="4">
         <v>1</v>
       </c>
@@ -6272,7 +6272,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="4">
         <v>1</v>
       </c>
@@ -6305,7 +6305,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="4">
         <v>2</v>
       </c>
@@ -6415,26 +6415,26 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="I21" s="59" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="I21" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="72"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -6473,7 +6473,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="4">
         <v>1</v>
       </c>
@@ -6512,7 +6512,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="4">
         <v>2</v>
       </c>
@@ -6551,7 +6551,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
+      <c r="A25" s="74"/>
       <c r="I25" s="4">
         <v>3</v>
       </c>
@@ -6572,7 +6572,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
+      <c r="A26" s="74"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
@@ -6702,34 +6702,34 @@
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="58" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="60"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="60"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="59" t="s">
+      <c r="H34" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="60"/>
+      <c r="I34" s="50"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="59" t="s">
+      <c r="K34" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="60"/>
+      <c r="L34" s="50"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="59" t="s">
+      <c r="N34" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="O34" s="60"/>
+      <c r="O34" s="50"/>
     </row>
     <row r="35" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="13" t="s">
         <v>54</v>
       </c>
@@ -6762,7 +6762,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="14">
         <v>1</v>
       </c>
@@ -6795,7 +6795,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="14">
         <v>2</v>
       </c>
@@ -6828,28 +6828,28 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
+      <c r="A38" s="39"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="J39" s="56" t="s">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="J39" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="58"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="46"/>
     </row>
     <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="13" t="s">
         <v>51</v>
       </c>
@@ -6885,7 +6885,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="14">
         <v>1</v>
       </c>
@@ -6921,7 +6921,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="14">
         <v>2</v>
       </c>
@@ -6957,7 +6957,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
+      <c r="A43" s="39"/>
       <c r="J43" s="4">
         <v>3</v>
       </c>
@@ -6975,7 +6975,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
+      <c r="A44" s="39"/>
       <c r="J44" s="4">
         <v>4</v>
       </c>
@@ -6994,15 +6994,15 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="G45" s="59" t="s">
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="G45" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="60"/>
+      <c r="H45" s="50"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="8"/>
@@ -7176,17 +7176,17 @@
     </row>
     <row r="57" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="37"/>
-      <c r="H57" s="74" t="s">
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="62"/>
+      <c r="H57" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="I57" s="75"/>
-      <c r="J57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="77"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
@@ -7201,14 +7201,14 @@
       <c r="AA57" s="11"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
       <c r="F58" s="11"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="80"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
@@ -7223,14 +7223,14 @@
       <c r="AA58" s="11"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="40"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="65"/>
       <c r="F59" s="11"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="80"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
@@ -7245,14 +7245,14 @@
       <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
       <c r="F60" s="11"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="80"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
@@ -7267,14 +7267,14 @@
       <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B61" s="38"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
       <c r="F61" s="11"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="80"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
@@ -7289,14 +7289,14 @@
       <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
       <c r="F62" s="11"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="80"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="17"/>
@@ -7311,20 +7311,20 @@
       <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B63" s="38"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
       <c r="F63" s="11"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="78"/>
-      <c r="L63" s="27" t="s">
+      <c r="H63" s="78"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="80"/>
+      <c r="L63" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="37"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="62"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="17"/>
@@ -7339,18 +7339,18 @@
       <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B64" s="38"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
       <c r="F64" s="11"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="78"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="40"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="80"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="65"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="17"/>
@@ -7365,18 +7365,18 @@
       <c r="AA64" s="11"/>
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="41"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="43"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="11"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="78"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="40"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="80"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="65"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="17"/>
@@ -7393,13 +7393,13 @@
     <row r="66" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="81"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="43"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="83"/>
+      <c r="L66" s="66"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="68"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
@@ -7473,23 +7473,23 @@
       <c r="AA70" s="11"/>
     </row>
     <row r="71" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="37"/>
-      <c r="F71" s="27" t="s">
+      <c r="C71" s="61"/>
+      <c r="D71" s="62"/>
+      <c r="F71" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="37"/>
-      <c r="L71" s="27" t="s">
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="62"/>
+      <c r="L71" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="37"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="62"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
@@ -7504,17 +7504,17 @@
       <c r="AA71" s="11"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B72" s="38"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="40"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="40"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="40"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="65"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="65"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
@@ -7529,95 +7529,95 @@
       <c r="AA72" s="11"/>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B73" s="38"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="40"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="40"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="40"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="65"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="65"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="65"/>
     </row>
     <row r="74" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="41"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="43"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="43"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="43"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="68"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="67"/>
+      <c r="O74" s="68"/>
     </row>
     <row r="76" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="E77" s="37"/>
-      <c r="G77" s="27" t="s">
+      <c r="D77" s="61"/>
+      <c r="E77" s="62"/>
+      <c r="G77" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="H77" s="36"/>
-      <c r="I77" s="37"/>
-      <c r="K77" s="27" t="s">
+      <c r="H77" s="61"/>
+      <c r="I77" s="62"/>
+      <c r="K77" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="L77" s="36"/>
-      <c r="M77" s="37"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="62"/>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C78" s="38"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="40"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="40"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="40"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="65"/>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C79" s="38"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="40"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="40"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="40"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="65"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="64"/>
+      <c r="M79" s="65"/>
     </row>
     <row r="80" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="43"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="43"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="43"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="68"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="68"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="68"/>
     </row>
     <row r="84" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H84" s="82"/>
-      <c r="I84" s="83"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="82"/>
-      <c r="L84" s="83"/>
-      <c r="M84" s="65"/>
-      <c r="N84" s="82"/>
-      <c r="O84" s="83"/>
-      <c r="P84" s="65"/>
-      <c r="Q84" s="82"/>
-      <c r="R84" s="83"/>
-      <c r="S84" s="65"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="31"/>
     </row>
     <row r="85" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H85" s="9"/>
@@ -7631,38 +7631,45 @@
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
-      <c r="S85" s="65"/>
+      <c r="S85" s="31"/>
     </row>
     <row r="86" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H86" s="65"/>
-      <c r="I86" s="65"/>
-      <c r="J86" s="65"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="65"/>
-      <c r="M86" s="65"/>
-      <c r="N86" s="65"/>
-      <c r="O86" s="65"/>
-      <c r="P86" s="65"/>
-      <c r="Q86" s="65"/>
-      <c r="R86" s="65"/>
-      <c r="S86" s="65"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="31"/>
     </row>
     <row r="87" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="65"/>
-      <c r="M87" s="65"/>
-      <c r="N87" s="65"/>
-      <c r="O87" s="65"/>
-      <c r="P87" s="65"/>
-      <c r="Q87" s="65"/>
-      <c r="R87" s="65"/>
-      <c r="S87" s="65"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="31"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B57:E65"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="H57:J66"/>
     <mergeCell ref="C77:E80"/>
     <mergeCell ref="G77:I80"/>
     <mergeCell ref="K77:M80"/>
@@ -7679,13 +7686,6 @@
     <mergeCell ref="F71:I74"/>
     <mergeCell ref="L71:O74"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B57:E65"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="H57:J66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Base_de_datos_monitoreo_arboles.xlsx
+++ b/Base_de_datos_monitoreo_arboles.xlsx
@@ -221,9 +221,6 @@
     <t>family</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>sower</t>
   </si>
   <si>
@@ -373,6 +370,9 @@
 origin_id: INTEGER (PK)
 origin: VARCHAR(30) NN UNIQUE
 </t>
+  </si>
+  <si>
+    <t>location_</t>
   </si>
 </sst>
 </file>
@@ -838,6 +838,78 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,116 +934,44 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4586,19 +4586,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
       <c r="K1" s="7"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="65" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4631,7 +4631,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -4786,27 +4786,27 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="J10" s="44" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="J10" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="46"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
@@ -4842,7 +4842,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="14">
         <v>1</v>
       </c>
@@ -4878,7 +4878,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="14">
         <v>2</v>
       </c>
@@ -4914,7 +4914,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="63"/>
       <c r="J14" s="4">
         <v>3</v>
       </c>
@@ -4932,7 +4932,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="63"/>
       <c r="J15" s="4">
         <v>4</v>
       </c>
@@ -4967,36 +4967,36 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="50"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="50"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="51" t="s">
+      <c r="K18" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="48"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="49" t="s">
+      <c r="N18" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="50"/>
+      <c r="O18" s="72"/>
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
@@ -5029,7 +5029,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="14">
         <v>1</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="14">
         <v>2</v>
       </c>
@@ -5095,28 +5095,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="69" t="s">
+      <c r="A23" s="63"/>
+      <c r="B23" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="J23" s="71" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="J23" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="47"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="60"/>
     </row>
     <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="21" t="s">
         <v>9</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="14">
         <v>1</v>
       </c>
@@ -5188,7 +5188,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="14">
         <v>2</v>
       </c>
@@ -5224,7 +5224,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="63"/>
       <c r="J27" s="4">
         <v>3</v>
       </c>
@@ -5242,7 +5242,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="63"/>
       <c r="J28" s="4">
         <v>4</v>
       </c>
@@ -5261,15 +5261,15 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="G29" s="51" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="G29" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="62"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="8"/>
@@ -5447,17 +5447,17 @@
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="62"/>
-      <c r="H41" s="52" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="H41" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="61"/>
-      <c r="J41" s="62"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="49"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
@@ -5472,14 +5472,14 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="65"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="52"/>
       <c r="F42" s="11"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="65"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
@@ -5494,14 +5494,14 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="65"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="11"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
@@ -5516,14 +5516,14 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="52"/>
       <c r="F44" s="11"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
@@ -5538,14 +5538,14 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="65"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
       <c r="F45" s="11"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="55"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
@@ -5560,10 +5560,10 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="11"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -5582,20 +5582,20 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="65"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="11"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="L47" s="52" t="s">
+      <c r="L47" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="62"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -5610,18 +5610,18 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="65"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="11"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="65"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="52"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
@@ -5636,18 +5636,18 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="66"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="11"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="65"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="52"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
@@ -5666,10 +5666,10 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="68"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="55"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -5743,23 +5743,23 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-      <c r="F55" s="52" t="s">
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+      <c r="F55" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="62"/>
-      <c r="K55" s="52" t="s">
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="49"/>
+      <c r="K55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="62"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="49"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -5774,17 +5774,17 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B56" s="55"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="57"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="65"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="65"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="52"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="52"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -5799,43 +5799,33 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B57" s="55"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="57"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="65"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="65"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="52"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="52"/>
     </row>
     <row r="58" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="58"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="60"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="68"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="55"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B55:D58"/>
-    <mergeCell ref="F55:I58"/>
-    <mergeCell ref="K55:N58"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="B41:E49"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="H41:J45"/>
     <mergeCell ref="A18:A28"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A3:A7"/>
@@ -5847,6 +5837,16 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B55:D58"/>
+    <mergeCell ref="F55:I58"/>
+    <mergeCell ref="K55:N58"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="B41:E49"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="H41:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5858,8 +5858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+    <sheetView tabSelected="1" topLeftCell="E34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5918,37 +5918,37 @@
         <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="29" t="s">
         <v>85</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>86</v>
       </c>
       <c r="P3" s="32"/>
     </row>
@@ -5969,7 +5969,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="5">
         <v>43385</v>
@@ -5990,10 +5990,10 @@
         <v>0.7</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="30" t="s">
         <v>75</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>76</v>
       </c>
       <c r="P4" s="33"/>
     </row>
@@ -6014,7 +6014,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="5">
         <v>43385</v>
@@ -6035,10 +6035,10 @@
         <v>0.35</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P5" s="33"/>
     </row>
@@ -6074,7 +6074,7 @@
       <c r="Q7" s="34"/>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6085,29 +6085,29 @@
         <v>57</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="4">
         <v>20</v>
@@ -6136,11 +6136,11 @@
         <v>43385</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="4">
         <v>20</v>
@@ -6169,11 +6169,11 @@
         <v>43385</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="4">
         <v>2</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="4">
         <v>30</v>
@@ -6202,11 +6202,11 @@
         <v>43385</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="4">
         <v>2</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="4">
         <v>30</v>
@@ -6235,11 +6235,11 @@
         <v>43385</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="4">
         <v>1</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="4">
         <v>23</v>
@@ -6268,11 +6268,11 @@
         <v>44486</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="4">
         <v>1</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="4">
         <v>23</v>
@@ -6301,11 +6301,11 @@
         <v>44486</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="4">
         <v>2</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="4">
         <v>32</v>
@@ -6334,7 +6334,7 @@
         <v>44486</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -6355,7 +6355,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="4">
         <v>32</v>
@@ -6367,7 +6367,7 @@
         <v>44486</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -6415,26 +6415,26 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="43" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="I21" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="I21" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
     </row>
     <row r="22" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="74"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -6445,35 +6445,35 @@
         <v>57</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="I22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="N22" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="4">
         <v>1</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
@@ -6508,11 +6508,11 @@
         <v>0.6</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="4">
         <v>2</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I24" s="4">
         <v>2</v>
@@ -6547,11 +6547,11 @@
         <v>0.6</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
+      <c r="A25" s="83"/>
       <c r="I25" s="4">
         <v>3</v>
       </c>
@@ -6568,11 +6568,11 @@
         <v>0.3</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
+      <c r="A26" s="83"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>0.3</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -6610,7 +6610,7 @@
         <v>0.7</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -6631,7 +6631,7 @@
         <v>0.7</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -6652,7 +6652,7 @@
         <v>0.35</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -6673,7 +6673,7 @@
         <v>0.35</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -6702,67 +6702,67 @@
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="46" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="50"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="62"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" s="62"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" s="62"/>
+    </row>
+    <row r="35" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="63"/>
+      <c r="B35" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="49" t="s">
+      <c r="F35" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="50"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="49" t="s">
+      <c r="I35" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="49" t="s">
+      <c r="L35" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O34" s="50"/>
-    </row>
-    <row r="35" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" s="3" t="s">
+      <c r="O35" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="14">
         <v>1</v>
       </c>
@@ -6791,11 +6791,11 @@
         <v>1</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="14">
         <v>2</v>
       </c>
@@ -6824,32 +6824,32 @@
         <v>2</v>
       </c>
       <c r="O37" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="63"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="63"/>
+      <c r="B39" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="J39" s="68" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="J39" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="46"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="70"/>
     </row>
     <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="13" t="s">
         <v>51</v>
       </c>
@@ -6857,35 +6857,35 @@
         <v>54</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="14">
         <v>1</v>
       </c>
@@ -6921,7 +6921,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="14">
         <v>2</v>
       </c>
@@ -6957,7 +6957,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="63"/>
       <c r="J43" s="4">
         <v>3</v>
       </c>
@@ -6975,7 +6975,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="63"/>
       <c r="J44" s="4">
         <v>4</v>
       </c>
@@ -6994,15 +6994,15 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="C45" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="G45" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="H45" s="50"/>
+      <c r="C45" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="G45" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="72"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="8"/>
@@ -7012,7 +7012,7 @@
     <row r="46" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="C46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>51</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="11"/>
@@ -7066,7 +7066,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
@@ -7084,7 +7084,7 @@
         <v>3</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
@@ -7176,17 +7176,17 @@
     </row>
     <row r="57" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="H57" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="62"/>
-      <c r="H57" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="I57" s="76"/>
-      <c r="J57" s="77"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="75"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
@@ -7201,14 +7201,14 @@
       <c r="AA57" s="11"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B58" s="63"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="65"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52"/>
       <c r="F58" s="11"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="80"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="78"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
@@ -7223,14 +7223,14 @@
       <c r="AA58" s="11"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="65"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="11"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="80"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="78"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
@@ -7245,14 +7245,14 @@
       <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="52"/>
       <c r="F60" s="11"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="80"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="78"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
@@ -7267,14 +7267,14 @@
       <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B61" s="63"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="52"/>
       <c r="F61" s="11"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="80"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="78"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
@@ -7289,14 +7289,14 @@
       <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="63"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="65"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="52"/>
       <c r="F62" s="11"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="80"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="78"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="17"/>
@@ -7311,20 +7311,20 @@
       <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B63" s="63"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="65"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="52"/>
       <c r="F63" s="11"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="80"/>
-      <c r="L63" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="62"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="78"/>
+      <c r="L63" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="49"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="17"/>
@@ -7339,18 +7339,18 @@
       <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B64" s="63"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="65"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="52"/>
       <c r="F64" s="11"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="80"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="64"/>
-      <c r="O64" s="65"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="78"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="52"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="17"/>
@@ -7365,18 +7365,18 @@
       <c r="AA64" s="11"/>
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="66"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="68"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
       <c r="F65" s="11"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="80"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="64"/>
-      <c r="N65" s="64"/>
-      <c r="O65" s="65"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="78"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="52"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="17"/>
@@ -7393,13 +7393,13 @@
     <row r="66" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="83"/>
-      <c r="L66" s="66"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="68"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="81"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="55"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
@@ -7473,23 +7473,23 @@
       <c r="AA70" s="11"/>
     </row>
     <row r="71" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="61"/>
-      <c r="D71" s="62"/>
-      <c r="F71" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="62"/>
-      <c r="L71" s="52" t="s">
+      <c r="C71" s="48"/>
+      <c r="D71" s="49"/>
+      <c r="F71" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="62"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="49"/>
+      <c r="L71" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M71" s="48"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="49"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
@@ -7504,17 +7504,17 @@
       <c r="AA71" s="11"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B72" s="63"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
-      <c r="L72" s="63"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="65"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="52"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="52"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="52"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
@@ -7529,81 +7529,81 @@
       <c r="AA72" s="11"/>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B73" s="63"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="65"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="65"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="64"/>
-      <c r="O73" s="65"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="52"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="52"/>
     </row>
     <row r="74" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="66"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="68"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="68"/>
-      <c r="L74" s="66"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67"/>
-      <c r="O74" s="68"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="55"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="55"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="55"/>
     </row>
     <row r="76" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" s="48"/>
+      <c r="E77" s="49"/>
+      <c r="G77" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="62"/>
-      <c r="G77" s="52" t="s">
+      <c r="H77" s="48"/>
+      <c r="I77" s="49"/>
+      <c r="K77" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="H77" s="61"/>
-      <c r="I77" s="62"/>
-      <c r="K77" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="L77" s="61"/>
-      <c r="M77" s="62"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="49"/>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C78" s="63"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="65"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="64"/>
-      <c r="M78" s="65"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="52"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="52"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="52"/>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C79" s="63"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="65"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="65"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="64"/>
-      <c r="M79" s="65"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="52"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="52"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="52"/>
     </row>
     <row r="80" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="66"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="68"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="68"/>
-      <c r="K80" s="66"/>
-      <c r="L80" s="67"/>
-      <c r="M80" s="68"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="55"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="55"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="55"/>
     </row>
     <row r="84" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H84" s="37"/>
@@ -7663,13 +7663,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B57:E65"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="H57:J66"/>
     <mergeCell ref="C77:E80"/>
     <mergeCell ref="G77:I80"/>
     <mergeCell ref="K77:M80"/>
@@ -7686,6 +7679,13 @@
     <mergeCell ref="F71:I74"/>
     <mergeCell ref="L71:O74"/>
     <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B57:E65"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="H57:J66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Base_de_datos_monitoreo_arboles.xlsx
+++ b/Base_de_datos_monitoreo_arboles.xlsx
@@ -838,6 +838,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -901,44 +940,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -966,12 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4586,19 +4586,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="7"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4631,7 +4631,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -4786,27 +4786,27 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="J10" s="68" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="J10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="70"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
@@ -4842,7 +4842,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="14">
         <v>1</v>
       </c>
@@ -4878,7 +4878,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="14">
         <v>2</v>
       </c>
@@ -4914,7 +4914,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
+      <c r="A14" s="39"/>
       <c r="J14" s="4">
         <v>3</v>
       </c>
@@ -4932,7 +4932,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
+      <c r="A15" s="39"/>
       <c r="J15" s="4">
         <v>4</v>
       </c>
@@ -4967,36 +4967,36 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="61" t="s">
+      <c r="K18" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="62"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="72"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
@@ -5029,7 +5029,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="14">
         <v>1</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="14">
         <v>2</v>
       </c>
@@ -5095,28 +5095,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="39"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="J23" s="58" t="s">
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="J23" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="21" t="s">
         <v>9</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="14">
         <v>1</v>
       </c>
@@ -5188,7 +5188,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="14">
         <v>2</v>
       </c>
@@ -5224,7 +5224,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
+      <c r="A27" s="39"/>
       <c r="J27" s="4">
         <v>3</v>
       </c>
@@ -5242,7 +5242,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
+      <c r="A28" s="39"/>
       <c r="J28" s="4">
         <v>4</v>
       </c>
@@ -5261,15 +5261,15 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="G29" s="61" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="G29" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="62"/>
+      <c r="H29" s="48"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="8"/>
@@ -5447,17 +5447,17 @@
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="H41" s="39" t="s">
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="H41" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="48"/>
-      <c r="J41" s="49"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="62"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
@@ -5472,14 +5472,14 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="65"/>
       <c r="F42" s="11"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="52"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
@@ -5494,14 +5494,14 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="65"/>
       <c r="F43" s="11"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="52"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
@@ -5516,14 +5516,14 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="52"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="11"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="52"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
@@ -5538,14 +5538,14 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="11"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="55"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
@@ -5560,10 +5560,10 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="52"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="11"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -5582,20 +5582,20 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="65"/>
       <c r="F47" s="11"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="L47" s="39" t="s">
+      <c r="L47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="49"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="62"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -5610,18 +5610,18 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="65"/>
       <c r="F48" s="11"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="52"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="65"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
@@ -5636,18 +5636,18 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="55"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="11"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="52"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="65"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
@@ -5666,10 +5666,10 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="55"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="68"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -5743,23 +5743,23 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41"/>
-      <c r="F55" s="39" t="s">
+      <c r="C55" s="53"/>
+      <c r="D55" s="54"/>
+      <c r="F55" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="49"/>
-      <c r="K55" s="39" t="s">
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="62"/>
+      <c r="K55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="49"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="62"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -5774,17 +5774,17 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="52"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="52"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="57"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="65"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="65"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -5799,33 +5799,43 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="52"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="52"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="57"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="65"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="65"/>
     </row>
     <row r="58" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="47"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="55"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="55"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="60"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B55:D58"/>
+    <mergeCell ref="F55:I58"/>
+    <mergeCell ref="K55:N58"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="B41:E49"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="H41:J45"/>
     <mergeCell ref="A18:A28"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A3:A7"/>
@@ -5837,16 +5847,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B55:D58"/>
-    <mergeCell ref="F55:I58"/>
-    <mergeCell ref="K55:N58"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="B41:E49"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="H41:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5858,8 +5858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34:O35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5873,7 +5873,7 @@
     <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="1" customWidth="1"/>
@@ -6074,7 +6074,7 @@
       <c r="Q7" s="34"/>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6107,7 +6107,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -6140,7 +6140,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -6173,7 +6173,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="4">
         <v>2</v>
       </c>
@@ -6206,7 +6206,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="4">
         <v>2</v>
       </c>
@@ -6239,7 +6239,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="4">
         <v>1</v>
       </c>
@@ -6272,7 +6272,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="4">
         <v>1</v>
       </c>
@@ -6305,7 +6305,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="4">
         <v>2</v>
       </c>
@@ -6415,26 +6415,26 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="I21" s="71" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="I21" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="83"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -6473,7 +6473,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="4">
         <v>1</v>
       </c>
@@ -6512,7 +6512,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="4">
         <v>2</v>
       </c>
@@ -6551,7 +6551,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="74"/>
       <c r="I25" s="4">
         <v>3</v>
       </c>
@@ -6572,7 +6572,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="74"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
@@ -6702,34 +6702,34 @@
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="60" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="62"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="62"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="61" t="s">
+      <c r="H34" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="62"/>
+      <c r="I34" s="48"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="61" t="s">
+      <c r="K34" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="L34" s="62"/>
+      <c r="L34" s="48"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="61" t="s">
+      <c r="N34" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="O34" s="62"/>
+      <c r="O34" s="48"/>
     </row>
     <row r="35" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="21" t="s">
         <v>54</v>
       </c>
@@ -6762,7 +6762,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="14">
         <v>1</v>
       </c>
@@ -6795,7 +6795,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="14">
         <v>2</v>
       </c>
@@ -6828,28 +6828,28 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
+      <c r="A38" s="39"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="66" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="J39" s="68" t="s">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="J39" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="70"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="46"/>
     </row>
     <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="13" t="s">
         <v>51</v>
       </c>
@@ -6885,7 +6885,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="14">
         <v>1</v>
       </c>
@@ -6921,7 +6921,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="14">
         <v>2</v>
       </c>
@@ -6957,7 +6957,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
+      <c r="A43" s="39"/>
       <c r="J43" s="4">
         <v>3</v>
       </c>
@@ -6975,7 +6975,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
+      <c r="A44" s="39"/>
       <c r="J44" s="4">
         <v>4</v>
       </c>
@@ -6994,15 +6994,15 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="G45" s="71" t="s">
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="G45" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="72"/>
+      <c r="H45" s="50"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="8"/>
@@ -7176,17 +7176,17 @@
     </row>
     <row r="57" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="49"/>
-      <c r="H57" s="73" t="s">
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="62"/>
+      <c r="H57" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="I57" s="74"/>
-      <c r="J57" s="75"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="77"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
@@ -7201,14 +7201,14 @@
       <c r="AA57" s="11"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
       <c r="F58" s="11"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="80"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
@@ -7223,14 +7223,14 @@
       <c r="AA58" s="11"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="52"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="65"/>
       <c r="F59" s="11"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="80"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
@@ -7245,14 +7245,14 @@
       <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
       <c r="F60" s="11"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="80"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
@@ -7267,14 +7267,14 @@
       <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B61" s="50"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
       <c r="F61" s="11"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="80"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
@@ -7289,14 +7289,14 @@
       <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="50"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
       <c r="F62" s="11"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="80"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="17"/>
@@ -7311,20 +7311,20 @@
       <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B63" s="50"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="52"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
       <c r="F63" s="11"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="78"/>
-      <c r="L63" s="39" t="s">
+      <c r="H63" s="78"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="80"/>
+      <c r="L63" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="49"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="62"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="17"/>
@@ -7339,18 +7339,18 @@
       <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B64" s="50"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="52"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
       <c r="F64" s="11"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="78"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="51"/>
-      <c r="O64" s="52"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="80"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="65"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="17"/>
@@ -7365,18 +7365,18 @@
       <c r="AA64" s="11"/>
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="53"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="11"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="78"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="52"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="80"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="65"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="17"/>
@@ -7393,13 +7393,13 @@
     <row r="66" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="81"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="55"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="83"/>
+      <c r="L66" s="66"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="68"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
@@ -7473,23 +7473,23 @@
       <c r="AA70" s="11"/>
     </row>
     <row r="71" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
-      <c r="F71" s="39" t="s">
+      <c r="C71" s="61"/>
+      <c r="D71" s="62"/>
+      <c r="F71" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="49"/>
-      <c r="L71" s="39" t="s">
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="62"/>
+      <c r="L71" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="49"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="62"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
@@ -7504,17 +7504,17 @@
       <c r="AA71" s="11"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B72" s="50"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="52"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="52"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="52"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="65"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="65"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
@@ -7529,81 +7529,81 @@
       <c r="AA72" s="11"/>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="52"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="52"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="51"/>
-      <c r="N73" s="51"/>
-      <c r="O73" s="52"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="65"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="65"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="65"/>
     </row>
     <row r="74" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="53"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="55"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="55"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="55"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="68"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="67"/>
+      <c r="O74" s="68"/>
     </row>
     <row r="76" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49"/>
-      <c r="G77" s="39" t="s">
+      <c r="D77" s="61"/>
+      <c r="E77" s="62"/>
+      <c r="G77" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="H77" s="48"/>
-      <c r="I77" s="49"/>
-      <c r="K77" s="39" t="s">
+      <c r="H77" s="61"/>
+      <c r="I77" s="62"/>
+      <c r="K77" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="L77" s="48"/>
-      <c r="M77" s="49"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="62"/>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C78" s="50"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="52"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="52"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="52"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="65"/>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C79" s="50"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="52"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="52"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="51"/>
-      <c r="M79" s="52"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="65"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="64"/>
+      <c r="M79" s="65"/>
     </row>
     <row r="80" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="53"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="55"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="55"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="55"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="68"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="68"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="68"/>
     </row>
     <row r="84" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H84" s="37"/>
@@ -7663,6 +7663,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B57:E65"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="H57:J66"/>
     <mergeCell ref="C77:E80"/>
     <mergeCell ref="G77:I80"/>
     <mergeCell ref="K77:M80"/>
@@ -7679,13 +7686,6 @@
     <mergeCell ref="F71:I74"/>
     <mergeCell ref="L71:O74"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B57:E65"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="H57:J66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Base_de_datos_monitoreo_arboles.xlsx
+++ b/Base_de_datos_monitoreo_arboles.xlsx
@@ -209,12 +209,6 @@
     <t>scientific_name_id</t>
   </si>
   <si>
-    <t xml:space="preserve">scientific_names
-scientific_name_id: INTEGER (PK)
-scientific_name: VARCHAR(30) NN UNIQUE
-</t>
-  </si>
-  <si>
     <t>plants</t>
   </si>
   <si>
@@ -278,9 +272,6 @@
     <t>plant_flower_color</t>
   </si>
   <si>
-    <t>plant_flower_color_id</t>
-  </si>
-  <si>
     <t>monitoring_date_1</t>
   </si>
   <si>
@@ -317,16 +308,14 @@
     <t>monitorings</t>
   </si>
   <si>
-    <t>monitoring
-monitoring_id: INTEGER (PK)
-monitoring_date: DATETIME NN
-height: FLOAT(5) NN
-diameter: FLOAT(5) NN
-plant_id: INTEGER (FK)</t>
+    <t>location_</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t xml:space="preserve">plants
-plant_id: INTEGER (PK)
+id: INTEGER (PK)
 scientific_name_id: INTEGER(FK)
 family_id: INTEGER (FK)
 location_id: INTEGER (FK)
@@ -336,43 +325,54 @@
   </si>
   <si>
     <t xml:space="preserve">plant_flower_color
-plant_flower_color_id: INTEGER (PK)
+id: INTEGER (PK)
 plant_id: INTEGER (FK)
 color_id: INTEGER(FK)
 </t>
   </si>
   <si>
+    <t>monitoring
+id: INTEGER (PK)
+monitoring_date: DATETIME NN
+height: FLOAT(5) NN
+diameter: FLOAT(5) NN
+plant_id: INTEGER (FK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientific_names
+id: INTEGER (PK)
+scientific_name: VARCHAR(30) NN UNIQUE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sowers
+id: INTEGER (PK)
+sower: VARCHAR(30) NN UNIQUE
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">flower_color
-color_id: INTEGER(PK)
+id: INTEGER(PK)
 color: VARCHAR(30) NN UNIQUE
 </t>
   </si>
   <si>
-    <t xml:space="preserve">sowers
-sower_id: INTEGER (PK)
-sower: VARCHAR(30) NN UNIQUE
+    <t xml:space="preserve">origins
+id: INTEGER (PK)
+origin: VARCHAR(30) NN UNIQUE
 </t>
   </si>
   <si>
+    <t xml:space="preserve">locations
+id: INTEGER (PK)
+location: VARCHAR(30) NN UNIQUE
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">families
-family_id: INTEGER (PK)
+id: INTEGER (PK)
 family: VARCHAR(30) NN UNIQUE
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">locations
-locations_id: INTEGER (PK)
-location: VARCHAR(30) NN UNIQUE
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">origins
-origin_id: INTEGER (PK)
-origin: VARCHAR(30) NN UNIQUE
-</t>
-  </si>
-  <si>
-    <t>location_</t>
   </si>
 </sst>
 </file>
@@ -838,6 +838,78 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,116 +934,44 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4586,19 +4586,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
       <c r="K1" s="7"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="65" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4631,7 +4631,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -4786,27 +4786,27 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="J10" s="44" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="J10" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="46"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
@@ -4842,7 +4842,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="14">
         <v>1</v>
       </c>
@@ -4878,7 +4878,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="14">
         <v>2</v>
       </c>
@@ -4914,7 +4914,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="63"/>
       <c r="J14" s="4">
         <v>3</v>
       </c>
@@ -4932,7 +4932,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="63"/>
       <c r="J15" s="4">
         <v>4</v>
       </c>
@@ -4967,36 +4967,36 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="50"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="50"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="51" t="s">
+      <c r="K18" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="48"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="49" t="s">
+      <c r="N18" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="50"/>
+      <c r="O18" s="72"/>
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
@@ -5029,7 +5029,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="14">
         <v>1</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="14">
         <v>2</v>
       </c>
@@ -5095,28 +5095,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="69" t="s">
+      <c r="A23" s="63"/>
+      <c r="B23" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="J23" s="71" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="J23" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="47"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="60"/>
     </row>
     <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="21" t="s">
         <v>9</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="14">
         <v>1</v>
       </c>
@@ -5188,7 +5188,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="14">
         <v>2</v>
       </c>
@@ -5224,7 +5224,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="63"/>
       <c r="J27" s="4">
         <v>3</v>
       </c>
@@ -5242,7 +5242,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="63"/>
       <c r="J28" s="4">
         <v>4</v>
       </c>
@@ -5261,15 +5261,15 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="G29" s="51" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="G29" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="62"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="8"/>
@@ -5447,17 +5447,17 @@
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="62"/>
-      <c r="H41" s="52" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="H41" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="61"/>
-      <c r="J41" s="62"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="49"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
@@ -5472,14 +5472,14 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="65"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="52"/>
       <c r="F42" s="11"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="65"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
@@ -5494,14 +5494,14 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="65"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="11"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
@@ -5516,14 +5516,14 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="52"/>
       <c r="F44" s="11"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
@@ -5538,14 +5538,14 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="65"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
       <c r="F45" s="11"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="55"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
@@ -5560,10 +5560,10 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="11"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -5582,20 +5582,20 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="65"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="11"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="L47" s="52" t="s">
+      <c r="L47" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="62"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -5610,18 +5610,18 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="65"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="11"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="65"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="52"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
@@ -5636,18 +5636,18 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="66"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="11"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="65"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="52"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
@@ -5666,10 +5666,10 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="68"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="55"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -5743,23 +5743,23 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-      <c r="F55" s="52" t="s">
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+      <c r="F55" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="62"/>
-      <c r="K55" s="52" t="s">
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="49"/>
+      <c r="K55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="62"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="49"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -5774,17 +5774,17 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B56" s="55"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="57"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="65"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="65"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="52"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="52"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -5799,43 +5799,33 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B57" s="55"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="57"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="65"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="65"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="52"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="52"/>
     </row>
     <row r="58" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="58"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="60"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="68"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="55"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B55:D58"/>
-    <mergeCell ref="F55:I58"/>
-    <mergeCell ref="K55:N58"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="B41:E49"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="H41:J45"/>
     <mergeCell ref="A18:A28"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A3:A7"/>
@@ -5847,6 +5837,16 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B55:D58"/>
+    <mergeCell ref="F55:I58"/>
+    <mergeCell ref="K55:N58"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="B41:E49"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="H41:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5858,8 +5858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5915,40 +5915,40 @@
         <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="29" t="s">
         <v>83</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>85</v>
       </c>
       <c r="P3" s="32"/>
     </row>
@@ -5969,7 +5969,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H4" s="5">
         <v>43385</v>
@@ -5990,10 +5990,10 @@
         <v>0.7</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="P4" s="33"/>
     </row>
@@ -6014,7 +6014,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5" s="5">
         <v>43385</v>
@@ -6035,10 +6035,10 @@
         <v>0.35</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P5" s="33"/>
     </row>
@@ -6074,7 +6074,7 @@
       <c r="Q7" s="34"/>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6082,32 +6082,32 @@
         <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H10" s="4">
         <v>20</v>
@@ -6136,11 +6136,11 @@
         <v>43385</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11" s="4">
         <v>20</v>
@@ -6169,11 +6169,11 @@
         <v>43385</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="4">
         <v>2</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H12" s="4">
         <v>30</v>
@@ -6202,11 +6202,11 @@
         <v>43385</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="4">
         <v>2</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H13" s="4">
         <v>30</v>
@@ -6235,11 +6235,11 @@
         <v>43385</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="4">
         <v>1</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H14" s="4">
         <v>23</v>
@@ -6268,11 +6268,11 @@
         <v>44486</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="4">
         <v>1</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H15" s="4">
         <v>23</v>
@@ -6301,11 +6301,11 @@
         <v>44486</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="4">
         <v>2</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H16" s="4">
         <v>32</v>
@@ -6334,7 +6334,7 @@
         <v>44486</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -6355,7 +6355,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H17" s="4">
         <v>32</v>
@@ -6367,7 +6367,7 @@
         <v>44486</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -6415,65 +6415,65 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="I21" s="49" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="I21" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+    </row>
+    <row r="22" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="83"/>
+      <c r="B22" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-    </row>
-    <row r="22" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="74"/>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="I22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="N22" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="4">
         <v>1</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
@@ -6508,11 +6508,11 @@
         <v>0.6</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="4">
         <v>2</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I24" s="4">
         <v>2</v>
@@ -6547,11 +6547,11 @@
         <v>0.6</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
+      <c r="A25" s="83"/>
       <c r="I25" s="4">
         <v>3</v>
       </c>
@@ -6568,11 +6568,11 @@
         <v>0.3</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
+      <c r="A26" s="83"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>0.3</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -6610,7 +6610,7 @@
         <v>0.7</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -6631,7 +6631,7 @@
         <v>0.7</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -6652,7 +6652,7 @@
         <v>0.35</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -6673,7 +6673,7 @@
         <v>0.35</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -6702,34 +6702,34 @@
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="47" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="48"/>
+      <c r="E34" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="62"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" s="48"/>
+      <c r="H34" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="62"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="L34" s="48"/>
+      <c r="K34" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="62"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="O34" s="48"/>
+      <c r="N34" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="O34" s="62"/>
     </row>
     <row r="35" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="21" t="s">
         <v>54</v>
       </c>
@@ -6737,32 +6737,32 @@
         <v>52</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F35" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L35" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="L35" s="22" t="s">
+      <c r="N35" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="N35" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="O35" s="22" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="14">
         <v>1</v>
       </c>
@@ -6791,11 +6791,11 @@
         <v>1</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="14">
         <v>2</v>
       </c>
@@ -6824,68 +6824,68 @@
         <v>2</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="63"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="J39" s="44" t="s">
+      <c r="A39" s="63"/>
+      <c r="B39" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="J39" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="70"/>
+    </row>
+    <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="63"/>
+      <c r="B40" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="46"/>
-    </row>
-    <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>71</v>
+      <c r="D40" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="14">
         <v>1</v>
       </c>
@@ -6921,7 +6921,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="14">
         <v>2</v>
       </c>
@@ -6957,7 +6957,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="63"/>
       <c r="J43" s="4">
         <v>3</v>
       </c>
@@ -6975,7 +6975,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="63"/>
       <c r="J44" s="4">
         <v>4</v>
       </c>
@@ -6994,15 +6994,15 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="C45" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="G45" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="50"/>
+      <c r="C45" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="G45" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="72"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="8"/>
@@ -7012,7 +7012,7 @@
     <row r="46" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="C46" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>51</v>
@@ -7021,7 +7021,7 @@
         <v>40</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>42</v>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="11"/>
@@ -7066,7 +7066,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
@@ -7084,7 +7084,7 @@
         <v>3</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
@@ -7176,17 +7176,17 @@
     </row>
     <row r="57" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="H57" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="62"/>
-      <c r="H57" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="I57" s="76"/>
-      <c r="J57" s="77"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="75"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
@@ -7201,14 +7201,14 @@
       <c r="AA57" s="11"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B58" s="63"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="65"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52"/>
       <c r="F58" s="11"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="80"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="78"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
@@ -7223,14 +7223,14 @@
       <c r="AA58" s="11"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="65"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="11"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="80"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="78"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
@@ -7245,14 +7245,14 @@
       <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="52"/>
       <c r="F60" s="11"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="80"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="78"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
@@ -7267,14 +7267,14 @@
       <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B61" s="63"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="52"/>
       <c r="F61" s="11"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="80"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="78"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
@@ -7289,14 +7289,14 @@
       <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="63"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="65"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="52"/>
       <c r="F62" s="11"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="80"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="78"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="17"/>
@@ -7311,20 +7311,20 @@
       <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B63" s="63"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="65"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="52"/>
       <c r="F63" s="11"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="80"/>
-      <c r="L63" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="62"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="78"/>
+      <c r="L63" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="49"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="17"/>
@@ -7339,18 +7339,18 @@
       <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B64" s="63"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="65"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="52"/>
       <c r="F64" s="11"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="80"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="64"/>
-      <c r="O64" s="65"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="78"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="52"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="17"/>
@@ -7365,18 +7365,18 @@
       <c r="AA64" s="11"/>
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="66"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="68"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
       <c r="F65" s="11"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="80"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="64"/>
-      <c r="N65" s="64"/>
-      <c r="O65" s="65"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="78"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="52"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="17"/>
@@ -7393,13 +7393,13 @@
     <row r="66" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="83"/>
-      <c r="L66" s="66"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="68"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="81"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="55"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
@@ -7473,23 +7473,23 @@
       <c r="AA70" s="11"/>
     </row>
     <row r="71" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="61"/>
-      <c r="D71" s="62"/>
-      <c r="F71" s="52" t="s">
+      <c r="B71" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="48"/>
+      <c r="D71" s="49"/>
+      <c r="F71" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="62"/>
-      <c r="L71" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="62"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="49"/>
+      <c r="L71" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="M71" s="48"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="49"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
@@ -7504,17 +7504,17 @@
       <c r="AA71" s="11"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B72" s="63"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
-      <c r="L72" s="63"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="65"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="52"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="52"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="52"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
@@ -7529,81 +7529,81 @@
       <c r="AA72" s="11"/>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B73" s="63"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="65"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="65"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="64"/>
-      <c r="O73" s="65"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="52"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="52"/>
     </row>
     <row r="74" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="66"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="68"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="68"/>
-      <c r="L74" s="66"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67"/>
-      <c r="O74" s="68"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="55"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="55"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="55"/>
     </row>
     <row r="76" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="62"/>
-      <c r="G77" s="52" t="s">
+      <c r="C77" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="48"/>
+      <c r="E77" s="49"/>
+      <c r="G77" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H77" s="48"/>
+      <c r="I77" s="49"/>
+      <c r="K77" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H77" s="61"/>
-      <c r="I77" s="62"/>
-      <c r="K77" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="L77" s="61"/>
-      <c r="M77" s="62"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="49"/>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C78" s="63"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="65"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="64"/>
-      <c r="M78" s="65"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="52"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="52"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="52"/>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C79" s="63"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="65"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="65"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="64"/>
-      <c r="M79" s="65"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="52"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="52"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="52"/>
     </row>
     <row r="80" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="66"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="68"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="68"/>
-      <c r="K80" s="66"/>
-      <c r="L80" s="67"/>
-      <c r="M80" s="68"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="55"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="55"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="55"/>
     </row>
     <row r="84" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H84" s="37"/>
@@ -7663,13 +7663,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B57:E65"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="H57:J66"/>
     <mergeCell ref="C77:E80"/>
     <mergeCell ref="G77:I80"/>
     <mergeCell ref="K77:M80"/>
@@ -7686,6 +7679,13 @@
     <mergeCell ref="F71:I74"/>
     <mergeCell ref="L71:O74"/>
     <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B57:E65"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="H57:J66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Base_de_datos_monitoreo_arboles.xlsx
+++ b/Base_de_datos_monitoreo_arboles.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="100">
   <si>
     <t>ubicación</t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>white</t>
-  </si>
-  <si>
-    <t>plant_flower_color</t>
   </si>
   <si>
     <t>monitoring_date_1</t>
@@ -324,14 +321,37 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">plant_flower_color
+    <t xml:space="preserve">scientific_names
 id: INTEGER (PK)
-plant_id: INTEGER (FK)
-color_id: INTEGER(FK)
+scientific_name: VARCHAR(30) NN UNIQUE
 </t>
   </si>
   <si>
-    <t>monitoring
+    <t xml:space="preserve">sowers
+id: INTEGER (PK)
+sower: VARCHAR(30) NN UNIQUE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origins
+id: INTEGER (PK)
+origin: VARCHAR(30) NN UNIQUE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locations
+id: INTEGER (PK)
+location: VARCHAR(30) NN UNIQUE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">families
+id: INTEGER (PK)
+family: VARCHAR(30) NN UNIQUE
+</t>
+  </si>
+  <si>
+    <t>monitorings
 id: INTEGER (PK)
 monitoring_date: DATETIME NN
 height: FLOAT(5) NN
@@ -339,39 +359,22 @@
 plant_id: INTEGER (FK)</t>
   </si>
   <si>
-    <t xml:space="preserve">scientific_names
-id: INTEGER (PK)
-scientific_name: VARCHAR(30) NN UNIQUE
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sowers
-id: INTEGER (PK)
-sower: VARCHAR(30) NN UNIQUE
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flower_color
+    <t xml:space="preserve">flower_colors
 id: INTEGER(PK)
 color: VARCHAR(30) NN UNIQUE
 </t>
   </si>
   <si>
-    <t xml:space="preserve">origins
+    <t>flower_colors</t>
+  </si>
+  <si>
+    <t>plant_flower_colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant_flower_colors
 id: INTEGER (PK)
-origin: VARCHAR(30) NN UNIQUE
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locations
-id: INTEGER (PK)
-location: VARCHAR(30) NN UNIQUE
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">families
-id: INTEGER (PK)
-family: VARCHAR(30) NN UNIQUE
+plant_id: INTEGER (FK)
+color_id: INTEGER(FK)
 </t>
   </si>
 </sst>
@@ -838,6 +841,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -901,44 +943,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -966,12 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4586,19 +4589,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="7"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4631,7 +4634,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -4662,7 +4665,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -4693,7 +4696,7 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -4724,7 +4727,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -4786,27 +4789,27 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="J10" s="68" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="J10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="70"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
@@ -4842,7 +4845,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="14">
         <v>1</v>
       </c>
@@ -4878,7 +4881,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="14">
         <v>2</v>
       </c>
@@ -4914,7 +4917,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
+      <c r="A14" s="39"/>
       <c r="J14" s="4">
         <v>3</v>
       </c>
@@ -4932,7 +4935,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
+      <c r="A15" s="39"/>
       <c r="J15" s="4">
         <v>4</v>
       </c>
@@ -4967,36 +4970,36 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="61" t="s">
+      <c r="K18" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="62"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="72"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
@@ -5029,7 +5032,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="14">
         <v>1</v>
       </c>
@@ -5062,7 +5065,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="14">
         <v>2</v>
       </c>
@@ -5095,28 +5098,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="39"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="J23" s="58" t="s">
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="J23" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="21" t="s">
         <v>9</v>
       </c>
@@ -5152,7 +5155,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="14">
         <v>1</v>
       </c>
@@ -5188,7 +5191,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="14">
         <v>2</v>
       </c>
@@ -5224,7 +5227,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
+      <c r="A27" s="39"/>
       <c r="J27" s="4">
         <v>3</v>
       </c>
@@ -5242,7 +5245,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
+      <c r="A28" s="39"/>
       <c r="J28" s="4">
         <v>4</v>
       </c>
@@ -5261,15 +5264,15 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="G29" s="61" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="G29" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="62"/>
+      <c r="H29" s="48"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="8"/>
@@ -5447,17 +5450,17 @@
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="H41" s="39" t="s">
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="H41" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="48"/>
-      <c r="J41" s="49"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="62"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
@@ -5472,14 +5475,14 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="65"/>
       <c r="F42" s="11"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="52"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
@@ -5494,14 +5497,14 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="65"/>
       <c r="F43" s="11"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="52"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
@@ -5516,14 +5519,14 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="52"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="11"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="52"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
@@ -5538,14 +5541,14 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="11"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="55"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
@@ -5560,10 +5563,10 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="52"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="11"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -5582,20 +5585,20 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="65"/>
       <c r="F47" s="11"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="L47" s="39" t="s">
+      <c r="L47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="49"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="62"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -5610,18 +5613,18 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="65"/>
       <c r="F48" s="11"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="52"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="65"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
@@ -5636,18 +5639,18 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="55"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="11"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="52"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="65"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
@@ -5666,10 +5669,10 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="55"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="68"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -5743,23 +5746,23 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41"/>
-      <c r="F55" s="39" t="s">
+      <c r="C55" s="53"/>
+      <c r="D55" s="54"/>
+      <c r="F55" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="49"/>
-      <c r="K55" s="39" t="s">
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="62"/>
+      <c r="K55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="49"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="62"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -5774,17 +5777,17 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="52"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="52"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="57"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="65"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="65"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -5799,33 +5802,43 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="52"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="52"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="57"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="65"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="65"/>
     </row>
     <row r="58" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="47"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="55"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="55"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="60"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B55:D58"/>
+    <mergeCell ref="F55:I58"/>
+    <mergeCell ref="K55:N58"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="B41:E49"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="H41:J45"/>
     <mergeCell ref="A18:A28"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A3:A7"/>
@@ -5837,16 +5850,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B55:D58"/>
-    <mergeCell ref="F55:I58"/>
-    <mergeCell ref="K55:N58"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="B41:E49"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="H41:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5858,8 +5861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5874,8 +5877,8 @@
     <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" style="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -5918,7 +5921,7 @@
         <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>57</v>
@@ -5927,28 +5930,28 @@
         <v>58</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="29" t="s">
         <v>82</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>83</v>
       </c>
       <c r="P3" s="32"/>
     </row>
@@ -5969,7 +5972,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="5">
         <v>43385</v>
@@ -6014,7 +6017,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="5">
         <v>43385</v>
@@ -6038,7 +6041,7 @@
         <v>73</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P5" s="33"/>
     </row>
@@ -6074,7 +6077,7 @@
       <c r="Q7" s="34"/>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6085,7 +6088,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>57</v>
@@ -6107,7 +6110,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="4">
         <v>20</v>
@@ -6140,7 +6143,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -6157,7 +6160,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="4">
         <v>20</v>
@@ -6173,7 +6176,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="4">
         <v>2</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="4">
         <v>30</v>
@@ -6206,7 +6209,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="4">
         <v>2</v>
       </c>
@@ -6223,7 +6226,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="4">
         <v>30</v>
@@ -6239,7 +6242,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="4">
         <v>1</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="4">
         <v>23</v>
@@ -6272,7 +6275,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="4">
         <v>1</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="4">
         <v>23</v>
@@ -6305,7 +6308,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="4">
         <v>2</v>
       </c>
@@ -6322,7 +6325,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" s="4">
         <v>32</v>
@@ -6355,7 +6358,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="4">
         <v>32</v>
@@ -6415,28 +6418,28 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="I21" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="I21" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="83"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>52</v>
@@ -6445,7 +6448,7 @@
         <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>57</v>
@@ -6473,7 +6476,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="4">
         <v>1</v>
       </c>
@@ -6490,7 +6493,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
@@ -6512,7 +6515,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="4">
         <v>2</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" s="4">
         <v>2</v>
@@ -6551,7 +6554,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="74"/>
       <c r="I25" s="4">
         <v>3</v>
       </c>
@@ -6572,7 +6575,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="74"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
@@ -6702,34 +6705,34 @@
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="60" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="62"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="62"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="61" t="s">
+      <c r="H34" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="62"/>
+      <c r="I34" s="48"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="61" t="s">
+      <c r="K34" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="62"/>
+      <c r="L34" s="48"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="61" t="s">
+      <c r="N34" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="O34" s="62"/>
+      <c r="O34" s="48"/>
     </row>
     <row r="35" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="21" t="s">
         <v>54</v>
       </c>
@@ -6737,32 +6740,32 @@
         <v>52</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>56</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I35" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="L35" s="22" t="s">
         <v>57</v>
       </c>
       <c r="N35" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O35" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="14">
         <v>1</v>
       </c>
@@ -6791,11 +6794,11 @@
         <v>1</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="14">
         <v>2</v>
       </c>
@@ -6824,34 +6827,34 @@
         <v>2</v>
       </c>
       <c r="O37" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="J39" s="71" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="J39" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="70"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="47"/>
     </row>
     <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>54</v>
@@ -6868,24 +6871,24 @@
       <c r="G40" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K40" s="3" t="s">
+      <c r="J40" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="14">
         <v>1</v>
       </c>
@@ -6921,7 +6924,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="14">
         <v>2</v>
       </c>
@@ -6957,7 +6960,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
+      <c r="A43" s="39"/>
       <c r="J43" s="4">
         <v>3</v>
       </c>
@@ -6975,7 +6978,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
+      <c r="A44" s="39"/>
       <c r="J44" s="4">
         <v>4</v>
       </c>
@@ -6994,15 +6997,15 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="C45" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="G45" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="72"/>
+      <c r="C45" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="G45" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="48"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="8"/>
@@ -7011,19 +7014,19 @@
     </row>
     <row r="46" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
-      <c r="C46" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" s="3" t="s">
+      <c r="G46" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="22" t="s">
         <v>42</v>
       </c>
       <c r="L46" s="18"/>
@@ -7176,17 +7179,17 @@
     </row>
     <row r="57" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="49"/>
-      <c r="H57" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="I57" s="74"/>
-      <c r="J57" s="75"/>
+      <c r="B57" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="62"/>
+      <c r="H57" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57" s="76"/>
+      <c r="J57" s="77"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
@@ -7201,14 +7204,14 @@
       <c r="AA57" s="11"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
       <c r="F58" s="11"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="80"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
@@ -7223,14 +7226,14 @@
       <c r="AA58" s="11"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="52"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="65"/>
       <c r="F59" s="11"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="80"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
@@ -7245,14 +7248,14 @@
       <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
       <c r="F60" s="11"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="80"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
@@ -7267,14 +7270,14 @@
       <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B61" s="50"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
       <c r="F61" s="11"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="80"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
@@ -7289,14 +7292,14 @@
       <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="50"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
       <c r="F62" s="11"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="80"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="17"/>
@@ -7311,20 +7314,20 @@
       <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B63" s="50"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="52"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
       <c r="F63" s="11"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="78"/>
-      <c r="L63" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="49"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="80"/>
+      <c r="L63" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="62"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="17"/>
@@ -7339,18 +7342,18 @@
       <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B64" s="50"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="52"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
       <c r="F64" s="11"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="78"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="51"/>
-      <c r="O64" s="52"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="80"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="65"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="17"/>
@@ -7365,18 +7368,18 @@
       <c r="AA64" s="11"/>
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="53"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="11"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="78"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="52"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="80"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="65"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="17"/>
@@ -7393,13 +7396,13 @@
     <row r="66" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="81"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="55"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="83"/>
+      <c r="L66" s="66"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="68"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
@@ -7473,23 +7476,23 @@
       <c r="AA70" s="11"/>
     </row>
     <row r="71" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
-      <c r="F71" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="49"/>
-      <c r="L71" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="49"/>
+      <c r="B71" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="61"/>
+      <c r="D71" s="62"/>
+      <c r="F71" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="62"/>
+      <c r="L71" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="62"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
@@ -7504,17 +7507,17 @@
       <c r="AA71" s="11"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B72" s="50"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="52"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="52"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="52"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="65"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="65"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
@@ -7529,81 +7532,81 @@
       <c r="AA72" s="11"/>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="52"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="52"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="51"/>
-      <c r="N73" s="51"/>
-      <c r="O73" s="52"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="65"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="65"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="65"/>
     </row>
     <row r="74" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="53"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="55"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="55"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="55"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="68"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="67"/>
+      <c r="O74" s="68"/>
     </row>
     <row r="76" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49"/>
-      <c r="G77" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H77" s="48"/>
-      <c r="I77" s="49"/>
-      <c r="K77" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="L77" s="48"/>
-      <c r="M77" s="49"/>
+      <c r="C77" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="61"/>
+      <c r="E77" s="62"/>
+      <c r="G77" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H77" s="61"/>
+      <c r="I77" s="62"/>
+      <c r="K77" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="L77" s="61"/>
+      <c r="M77" s="62"/>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C78" s="50"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="52"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="52"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="52"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="65"/>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C79" s="50"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="52"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="52"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="51"/>
-      <c r="M79" s="52"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="65"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="64"/>
+      <c r="M79" s="65"/>
     </row>
     <row r="80" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="53"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="55"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="55"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="55"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="68"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="68"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="68"/>
     </row>
     <row r="84" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H84" s="37"/>
@@ -7663,6 +7666,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B57:E65"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="H57:J66"/>
     <mergeCell ref="C77:E80"/>
     <mergeCell ref="G77:I80"/>
     <mergeCell ref="K77:M80"/>
@@ -7679,13 +7689,6 @@
     <mergeCell ref="F71:I74"/>
     <mergeCell ref="L71:O74"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B57:E65"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="H57:J66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Base_de_datos_monitoreo_arboles.xlsx
+++ b/Base_de_datos_monitoreo_arboles.xlsx
@@ -841,6 +841,78 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,116 +937,44 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4589,19 +4589,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
       <c r="K1" s="7"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="65" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4634,7 +4634,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -4727,7 +4727,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -4789,27 +4789,27 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="J10" s="44" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="J10" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="46"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70"/>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
@@ -4845,7 +4845,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="14">
         <v>1</v>
       </c>
@@ -4881,7 +4881,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="14">
         <v>2</v>
       </c>
@@ -4917,7 +4917,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="63"/>
       <c r="J14" s="4">
         <v>3</v>
       </c>
@@ -4935,7 +4935,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="63"/>
       <c r="J15" s="4">
         <v>4</v>
       </c>
@@ -4970,36 +4970,36 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="50"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="50"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="51" t="s">
+      <c r="K18" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="48"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="49" t="s">
+      <c r="N18" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="50"/>
+      <c r="O18" s="72"/>
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
@@ -5032,7 +5032,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="14">
         <v>1</v>
       </c>
@@ -5065,7 +5065,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="14">
         <v>2</v>
       </c>
@@ -5098,28 +5098,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="63"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="69" t="s">
+      <c r="A23" s="63"/>
+      <c r="B23" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="J23" s="71" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="J23" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="47"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="60"/>
     </row>
     <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="21" t="s">
         <v>9</v>
       </c>
@@ -5155,7 +5155,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="14">
         <v>1</v>
       </c>
@@ -5191,7 +5191,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="14">
         <v>2</v>
       </c>
@@ -5227,7 +5227,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="63"/>
       <c r="J27" s="4">
         <v>3</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="63"/>
       <c r="J28" s="4">
         <v>4</v>
       </c>
@@ -5264,15 +5264,15 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="G29" s="51" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="G29" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="62"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="8"/>
@@ -5450,17 +5450,17 @@
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="62"/>
-      <c r="H41" s="52" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="H41" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="61"/>
-      <c r="J41" s="62"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="49"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
@@ -5475,14 +5475,14 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="65"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="52"/>
       <c r="F42" s="11"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="65"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
@@ -5497,14 +5497,14 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="65"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="11"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
@@ -5519,14 +5519,14 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="52"/>
       <c r="F44" s="11"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="65"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
@@ -5541,14 +5541,14 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="65"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
       <c r="F45" s="11"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="68"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="55"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
@@ -5563,10 +5563,10 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="11"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -5585,20 +5585,20 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="65"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="11"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="L47" s="52" t="s">
+      <c r="L47" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="62"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -5613,18 +5613,18 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="65"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="11"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="65"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="52"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
@@ -5639,18 +5639,18 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="66"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="68"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="11"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="65"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="52"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
@@ -5669,10 +5669,10 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="68"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="55"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -5746,23 +5746,23 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-      <c r="F55" s="52" t="s">
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+      <c r="F55" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="62"/>
-      <c r="K55" s="52" t="s">
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="49"/>
+      <c r="K55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="62"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="49"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -5777,17 +5777,17 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B56" s="55"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="57"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="65"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="65"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="52"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="52"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -5802,43 +5802,33 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B57" s="55"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="57"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="65"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="65"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="52"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="52"/>
     </row>
     <row r="58" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="58"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="60"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="68"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="68"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="55"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B55:D58"/>
-    <mergeCell ref="F55:I58"/>
-    <mergeCell ref="K55:N58"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="B41:E49"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="H41:J45"/>
     <mergeCell ref="A18:A28"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A3:A7"/>
@@ -5850,6 +5840,16 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B55:D58"/>
+    <mergeCell ref="F55:I58"/>
+    <mergeCell ref="K55:N58"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="B41:E49"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="H41:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5861,8 +5861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6077,7 +6077,7 @@
       <c r="Q7" s="34"/>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6110,7 +6110,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -6143,7 +6143,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -6176,7 +6176,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="4">
         <v>2</v>
       </c>
@@ -6209,7 +6209,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="4">
         <v>2</v>
       </c>
@@ -6242,7 +6242,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="4">
         <v>1</v>
       </c>
@@ -6275,7 +6275,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="4">
         <v>1</v>
       </c>
@@ -6308,7 +6308,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="4">
         <v>2</v>
       </c>
@@ -6418,26 +6418,26 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="43" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="I21" s="49" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="I21" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
     </row>
     <row r="22" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="74"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="3" t="s">
         <v>88</v>
       </c>
@@ -6476,7 +6476,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="4">
         <v>1</v>
       </c>
@@ -6515,7 +6515,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="4">
         <v>2</v>
       </c>
@@ -6554,7 +6554,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
+      <c r="A25" s="83"/>
       <c r="I25" s="4">
         <v>3</v>
       </c>
@@ -6575,7 +6575,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
+      <c r="A26" s="83"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
@@ -6705,67 +6705,67 @@
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="47" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="48"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="51" t="s">
+      <c r="H34" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="48"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="51" t="s">
+      <c r="K34" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="48"/>
+      <c r="L34" s="72"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="51" t="s">
+      <c r="N34" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="O34" s="48"/>
+      <c r="O34" s="72"/>
     </row>
     <row r="35" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="63"/>
+      <c r="B35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N35" s="22" t="s">
+      <c r="N35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O35" s="22" t="s">
+      <c r="O35" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="14">
         <v>1</v>
       </c>
@@ -6798,7 +6798,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="14">
         <v>2</v>
       </c>
@@ -6831,28 +6831,28 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="63"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="69" t="s">
+      <c r="A39" s="63"/>
+      <c r="B39" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="J39" s="71" t="s">
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="J39" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="47"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="60"/>
     </row>
     <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="21" t="s">
         <v>88</v>
       </c>
@@ -6888,7 +6888,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="14">
         <v>1</v>
       </c>
@@ -6924,7 +6924,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="14">
         <v>2</v>
       </c>
@@ -6960,7 +6960,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="63"/>
       <c r="J43" s="4">
         <v>3</v>
       </c>
@@ -6978,7 +6978,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="63"/>
       <c r="J44" s="4">
         <v>4</v>
       </c>
@@ -6997,15 +6997,15 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="G45" s="51" t="s">
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="G45" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="H45" s="48"/>
+      <c r="H45" s="62"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="8"/>
@@ -7179,17 +7179,17 @@
     </row>
     <row r="57" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="62"/>
-      <c r="H57" s="75" t="s">
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="H57" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="I57" s="76"/>
-      <c r="J57" s="77"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="75"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
@@ -7204,14 +7204,14 @@
       <c r="AA57" s="11"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B58" s="63"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="65"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52"/>
       <c r="F58" s="11"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="80"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="78"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
@@ -7226,14 +7226,14 @@
       <c r="AA58" s="11"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="65"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="11"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="80"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="78"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
@@ -7248,14 +7248,14 @@
       <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="52"/>
       <c r="F60" s="11"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="80"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="78"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
@@ -7270,14 +7270,14 @@
       <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B61" s="63"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="52"/>
       <c r="F61" s="11"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="80"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="78"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
@@ -7292,14 +7292,14 @@
       <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="63"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="65"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="52"/>
       <c r="F62" s="11"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="80"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="78"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="17"/>
@@ -7314,20 +7314,20 @@
       <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B63" s="63"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="65"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="52"/>
       <c r="F63" s="11"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="80"/>
-      <c r="L63" s="52" t="s">
+      <c r="H63" s="76"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="78"/>
+      <c r="L63" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="62"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="49"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="17"/>
@@ -7342,18 +7342,18 @@
       <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B64" s="63"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="65"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="52"/>
       <c r="F64" s="11"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="80"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="64"/>
-      <c r="O64" s="65"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="78"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="52"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="17"/>
@@ -7368,18 +7368,18 @@
       <c r="AA64" s="11"/>
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="66"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="68"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
       <c r="F65" s="11"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="80"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="64"/>
-      <c r="N65" s="64"/>
-      <c r="O65" s="65"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="78"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="52"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="17"/>
@@ -7396,13 +7396,13 @@
     <row r="66" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="83"/>
-      <c r="L66" s="66"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="68"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="81"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="55"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
@@ -7476,23 +7476,23 @@
       <c r="AA70" s="11"/>
     </row>
     <row r="71" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="61"/>
-      <c r="D71" s="62"/>
-      <c r="F71" s="52" t="s">
+      <c r="C71" s="48"/>
+      <c r="D71" s="49"/>
+      <c r="F71" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="62"/>
-      <c r="L71" s="52" t="s">
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="49"/>
+      <c r="L71" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="62"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="49"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
@@ -7507,17 +7507,17 @@
       <c r="AA71" s="11"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B72" s="63"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="65"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
-      <c r="L72" s="63"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="65"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="52"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="52"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="52"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
@@ -7532,81 +7532,81 @@
       <c r="AA72" s="11"/>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B73" s="63"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="65"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="65"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="64"/>
-      <c r="O73" s="65"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="52"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="52"/>
     </row>
     <row r="74" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="66"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="68"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="68"/>
-      <c r="L74" s="66"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67"/>
-      <c r="O74" s="68"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="55"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="55"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="55"/>
     </row>
     <row r="76" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="62"/>
-      <c r="G77" s="52" t="s">
+      <c r="D77" s="48"/>
+      <c r="E77" s="49"/>
+      <c r="G77" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="H77" s="61"/>
-      <c r="I77" s="62"/>
-      <c r="K77" s="52" t="s">
+      <c r="H77" s="48"/>
+      <c r="I77" s="49"/>
+      <c r="K77" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="L77" s="61"/>
-      <c r="M77" s="62"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="49"/>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C78" s="63"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="65"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="64"/>
-      <c r="M78" s="65"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="52"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="52"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="52"/>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C79" s="63"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="65"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="65"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="64"/>
-      <c r="M79" s="65"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="52"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="52"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="52"/>
     </row>
     <row r="80" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="66"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="68"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="68"/>
-      <c r="K80" s="66"/>
-      <c r="L80" s="67"/>
-      <c r="M80" s="68"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="55"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="55"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="55"/>
     </row>
     <row r="84" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H84" s="37"/>
@@ -7666,13 +7666,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B57:E65"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="H57:J66"/>
     <mergeCell ref="C77:E80"/>
     <mergeCell ref="G77:I80"/>
     <mergeCell ref="K77:M80"/>
@@ -7689,6 +7682,13 @@
     <mergeCell ref="F71:I74"/>
     <mergeCell ref="L71:O74"/>
     <mergeCell ref="N34:O34"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B57:E65"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="H57:J66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Base_de_datos_monitoreo_arboles.xlsx
+++ b/Base_de_datos_monitoreo_arboles.xlsx
@@ -841,6 +841,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -904,44 +943,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -969,12 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4589,19 +4589,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="7"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4634,7 +4634,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -4727,7 +4727,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -4789,27 +4789,27 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="J10" s="68" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="J10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="70"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
@@ -4845,7 +4845,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="14">
         <v>1</v>
       </c>
@@ -4881,7 +4881,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="14">
         <v>2</v>
       </c>
@@ -4917,7 +4917,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
+      <c r="A14" s="39"/>
       <c r="J14" s="4">
         <v>3</v>
       </c>
@@ -4935,7 +4935,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
+      <c r="A15" s="39"/>
       <c r="J15" s="4">
         <v>4</v>
       </c>
@@ -4970,36 +4970,36 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="72"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="61" t="s">
+      <c r="K18" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="62"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="72"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
@@ -5032,7 +5032,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="14">
         <v>1</v>
       </c>
@@ -5065,7 +5065,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="14">
         <v>2</v>
       </c>
@@ -5098,28 +5098,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="39"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="J23" s="58" t="s">
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="J23" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="21" t="s">
         <v>9</v>
       </c>
@@ -5155,7 +5155,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="14">
         <v>1</v>
       </c>
@@ -5191,7 +5191,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="14">
         <v>2</v>
       </c>
@@ -5227,7 +5227,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
+      <c r="A27" s="39"/>
       <c r="J27" s="4">
         <v>3</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
+      <c r="A28" s="39"/>
       <c r="J28" s="4">
         <v>4</v>
       </c>
@@ -5264,15 +5264,15 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="G29" s="61" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="G29" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="62"/>
+      <c r="H29" s="48"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="8"/>
@@ -5450,17 +5450,17 @@
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="H41" s="39" t="s">
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="H41" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="48"/>
-      <c r="J41" s="49"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="62"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
@@ -5475,14 +5475,14 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="65"/>
       <c r="F42" s="11"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="52"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
@@ -5497,14 +5497,14 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="65"/>
       <c r="F43" s="11"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="52"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
@@ -5519,14 +5519,14 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="52"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="11"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="52"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
@@ -5541,14 +5541,14 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="11"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="55"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
@@ -5563,10 +5563,10 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="52"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="11"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -5585,20 +5585,20 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="65"/>
       <c r="F47" s="11"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="L47" s="39" t="s">
+      <c r="L47" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="49"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="62"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -5613,18 +5613,18 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="65"/>
       <c r="F48" s="11"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="52"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="65"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
@@ -5639,18 +5639,18 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="55"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="11"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="52"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="65"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
@@ -5669,10 +5669,10 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="55"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="68"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -5746,23 +5746,23 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41"/>
-      <c r="F55" s="39" t="s">
+      <c r="C55" s="53"/>
+      <c r="D55" s="54"/>
+      <c r="F55" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="49"/>
-      <c r="K55" s="39" t="s">
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="62"/>
+      <c r="K55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="49"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="62"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -5777,17 +5777,17 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="52"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="52"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="57"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="65"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="65"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -5802,33 +5802,43 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="52"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="52"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="57"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="65"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="65"/>
     </row>
     <row r="58" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="47"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="55"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="55"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="60"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B55:D58"/>
+    <mergeCell ref="F55:I58"/>
+    <mergeCell ref="K55:N58"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="B41:E49"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="H41:J45"/>
     <mergeCell ref="A18:A28"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A3:A7"/>
@@ -5840,16 +5850,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B55:D58"/>
-    <mergeCell ref="F55:I58"/>
-    <mergeCell ref="K55:N58"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="B41:E49"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="H41:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5861,8 +5861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:G40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6077,7 +6077,7 @@
       <c r="Q7" s="34"/>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6110,7 +6110,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -6143,7 +6143,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -6176,7 +6176,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="4">
         <v>2</v>
       </c>
@@ -6209,7 +6209,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="4">
         <v>2</v>
       </c>
@@ -6242,7 +6242,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="4">
         <v>1</v>
       </c>
@@ -6275,7 +6275,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="4">
         <v>1</v>
       </c>
@@ -6308,7 +6308,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="4">
         <v>2</v>
       </c>
@@ -6418,26 +6418,26 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="I21" s="71" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="I21" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:16" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="83"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="3" t="s">
         <v>88</v>
       </c>
@@ -6476,7 +6476,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="4">
         <v>1</v>
       </c>
@@ -6515,7 +6515,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="4">
         <v>2</v>
       </c>
@@ -6554,7 +6554,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="74"/>
       <c r="I25" s="4">
         <v>3</v>
       </c>
@@ -6575,7 +6575,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="74"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
@@ -6705,34 +6705,34 @@
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="70" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="72"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="72"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="71" t="s">
+      <c r="H34" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="72"/>
+      <c r="I34" s="50"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="71" t="s">
+      <c r="K34" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="72"/>
+      <c r="L34" s="50"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="71" t="s">
+      <c r="N34" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="O34" s="72"/>
+      <c r="O34" s="50"/>
     </row>
     <row r="35" spans="1:15" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="13" t="s">
         <v>54</v>
       </c>
@@ -6765,7 +6765,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="14">
         <v>1</v>
       </c>
@@ -6798,7 +6798,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="14">
         <v>2</v>
       </c>
@@ -6831,64 +6831,64 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
+      <c r="A38" s="39"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="56" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="J39" s="58" t="s">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="J39" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="60"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="46"/>
     </row>
     <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K40" s="22" t="s">
+      <c r="K40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="22" t="s">
+      <c r="L40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M40" s="22" t="s">
+      <c r="M40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N40" s="22" t="s">
+      <c r="N40" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="14">
         <v>1</v>
       </c>
@@ -6924,7 +6924,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="14">
         <v>2</v>
       </c>
@@ -6960,7 +6960,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
+      <c r="A43" s="39"/>
       <c r="J43" s="4">
         <v>3</v>
       </c>
@@ -6978,7 +6978,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
+      <c r="A44" s="39"/>
       <c r="J44" s="4">
         <v>4</v>
       </c>
@@ -6997,15 +6997,15 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="G45" s="61" t="s">
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="G45" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="H45" s="62"/>
+      <c r="H45" s="50"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="8"/>
@@ -7014,19 +7014,19 @@
     </row>
     <row r="46" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L46" s="18"/>
@@ -7179,17 +7179,17 @@
     </row>
     <row r="57" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="49"/>
-      <c r="H57" s="73" t="s">
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="62"/>
+      <c r="H57" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="I57" s="74"/>
-      <c r="J57" s="75"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="77"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
@@ -7204,14 +7204,14 @@
       <c r="AA57" s="11"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
       <c r="F58" s="11"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="80"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
@@ -7226,14 +7226,14 @@
       <c r="AA58" s="11"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="52"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="65"/>
       <c r="F59" s="11"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="80"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
@@ -7248,14 +7248,14 @@
       <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
       <c r="F60" s="11"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="80"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
@@ -7270,14 +7270,14 @@
       <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B61" s="50"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
       <c r="F61" s="11"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="80"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
@@ -7292,14 +7292,14 @@
       <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="50"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
       <c r="F62" s="11"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="80"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="17"/>
@@ -7314,20 +7314,20 @@
       <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B63" s="50"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="52"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
       <c r="F63" s="11"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="78"/>
-      <c r="L63" s="39" t="s">
+      <c r="H63" s="78"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="80"/>
+      <c r="L63" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="49"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="62"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="17"/>
@@ -7342,18 +7342,18 @@
       <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B64" s="50"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="52"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
       <c r="F64" s="11"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="78"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="51"/>
-      <c r="O64" s="52"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="80"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="65"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="17"/>
@@ -7368,18 +7368,18 @@
       <c r="AA64" s="11"/>
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="53"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="11"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="78"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="52"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="80"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="65"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="17"/>
@@ -7396,13 +7396,13 @@
     <row r="66" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="81"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="55"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="83"/>
+      <c r="L66" s="66"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="68"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
@@ -7476,23 +7476,23 @@
       <c r="AA70" s="11"/>
     </row>
     <row r="71" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49"/>
-      <c r="F71" s="39" t="s">
+      <c r="C71" s="61"/>
+      <c r="D71" s="62"/>
+      <c r="F71" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="49"/>
-      <c r="L71" s="39" t="s">
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="62"/>
+      <c r="L71" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="49"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="62"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
@@ -7507,17 +7507,17 @@
       <c r="AA71" s="11"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B72" s="50"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="52"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="52"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="52"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="65"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="65"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
@@ -7532,81 +7532,81 @@
       <c r="AA72" s="11"/>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="52"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="52"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="51"/>
-      <c r="N73" s="51"/>
-      <c r="O73" s="52"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="65"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="65"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="65"/>
     </row>
     <row r="74" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="53"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="55"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="55"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="55"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="68"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="67"/>
+      <c r="O74" s="68"/>
     </row>
     <row r="76" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49"/>
-      <c r="G77" s="39" t="s">
+      <c r="D77" s="61"/>
+      <c r="E77" s="62"/>
+      <c r="G77" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="H77" s="48"/>
-      <c r="I77" s="49"/>
-      <c r="K77" s="39" t="s">
+      <c r="H77" s="61"/>
+      <c r="I77" s="62"/>
+      <c r="K77" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="L77" s="48"/>
-      <c r="M77" s="49"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="62"/>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C78" s="50"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="52"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="52"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="52"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="65"/>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C79" s="50"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="52"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="52"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="51"/>
-      <c r="M79" s="52"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="65"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="64"/>
+      <c r="M79" s="65"/>
     </row>
     <row r="80" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="53"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="55"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="55"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="55"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="68"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="68"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="68"/>
     </row>
     <row r="84" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H84" s="37"/>
@@ -7666,6 +7666,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B57:E65"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="H57:J66"/>
     <mergeCell ref="C77:E80"/>
     <mergeCell ref="G77:I80"/>
     <mergeCell ref="K77:M80"/>
@@ -7682,13 +7689,6 @@
     <mergeCell ref="F71:I74"/>
     <mergeCell ref="L71:O74"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="J39:N39"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B57:E65"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="H57:J66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
